--- a/public/data/profit/profit_table_burundi.xlsx
+++ b/public/data/profit/profit_table_burundi.xlsx
@@ -1536,16 +1536,16 @@
         <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>-226.55</v>
+        <v>-61.26</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>364.49</v>
+        <v>407.59</v>
       </c>
       <c r="G2" t="n">
-        <v>-181.13</v>
+        <v>-37.36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1554,28 +1554,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-282.3</v>
+        <v>-104.73</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-183.51</v>
+        <v>-129.61</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-369.22</v>
+        <v>-259.05</v>
       </c>
       <c r="O2" t="n">
-        <v>215.52</v>
+        <v>160.7</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-85.68</v>
+        <v>20.96</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-344.33</v>
+        <v>-232.43</v>
       </c>
       <c r="U2" t="n">
-        <v>-57.62</v>
+        <v>52.53</v>
       </c>
       <c r="V2" t="n">
-        <v>-90.93</v>
+        <v>175.25</v>
       </c>
       <c r="W2" t="n">
-        <v>359.47</v>
+        <v>535.36</v>
       </c>
       <c r="X2" t="n">
-        <v>-161.68</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.59</v>
+        <v>464.15</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-29.33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-30.75</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-45.51</v>
+        <v>-44.17</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-32.72</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>-139.38</v>
+        <v>-12.58</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-175.6</v>
+        <v>-42.59</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>158.74</v>
+        <v>176.58</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>91.12</v>
+        <v>235.73</v>
       </c>
       <c r="W4" t="n">
-        <v>368.77</v>
+        <v>822.94</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.82</v>
+        <v>861.39</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>-237.53</v>
+        <v>-83.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>438.54</v>
+        <v>471.67</v>
       </c>
       <c r="G5" t="n">
-        <v>-180.54</v>
+        <v>-32.86</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-281.65</v>
+        <v>-116.67</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-316.67</v>
+        <v>-218.81</v>
       </c>
       <c r="O5" t="n">
-        <v>266.57</v>
+        <v>204.68</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.93</v>
+        <v>217.14</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1824,25 +1824,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-314.47</v>
+        <v>-216.62</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>103.46</v>
       </c>
       <c r="V5" t="n">
-        <v>-62.45</v>
+        <v>172.42</v>
       </c>
       <c r="W5" t="n">
-        <v>474.26</v>
+        <v>571.47</v>
       </c>
       <c r="X5" t="n">
-        <v>-147.07</v>
+        <v>-16.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.14</v>
+        <v>446.27</v>
       </c>
       <c r="Z5" t="n">
-        <v>-264.89</v>
+        <v>-170.07</v>
       </c>
     </row>
     <row r="6">
@@ -1856,16 +1856,16 @@
         <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>-168.61</v>
+        <v>-30.99</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>754.12</v>
+        <v>693.65</v>
       </c>
       <c r="G6" t="n">
-        <v>-182.54</v>
+        <v>-26.78</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-269.55</v>
+        <v>-176.69</v>
       </c>
       <c r="O6" t="n">
-        <v>382.9</v>
+        <v>320.77</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>517.79</v>
+        <v>610.64</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1904,25 +1904,25 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-272.64</v>
+        <v>-179.79</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>68.45</v>
+        <v>222.83</v>
       </c>
       <c r="W6" t="n">
-        <v>744.45</v>
+        <v>833.53</v>
       </c>
       <c r="X6" t="n">
-        <v>-178.13</v>
+        <v>-16.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>606.61</v>
+        <v>744.23</v>
       </c>
       <c r="Z6" t="n">
-        <v>-190.14</v>
+        <v>-97.29</v>
       </c>
     </row>
     <row r="7">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2067,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -2147,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>92</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-19.26</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>43.21</v>
+        <v>68.71</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>197.86</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.34</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>96</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2627,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>97</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2707,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2787,19 +2787,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2867,19 +2867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-3.08</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3027,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -3056,16 +3056,16 @@
         <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>-95.73</v>
+        <v>-21.8</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>378.95</v>
+        <v>391.1</v>
       </c>
       <c r="G21" t="n">
-        <v>-46.42</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-119.21</v>
+        <v>-46.87</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.39</v>
+        <v>32.18</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.52</v>
+        <v>68.78</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-89.42</v>
+        <v>-17.07</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>164.08</v>
+        <v>232.34</v>
       </c>
       <c r="X21" t="n">
-        <v>-54.47</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.08</v>
+        <v>130.92</v>
       </c>
       <c r="Z21" t="n">
-        <v>-99.13</v>
+        <v>-30.87</v>
       </c>
     </row>
     <row r="22">
@@ -3136,16 +3136,16 @@
         <v>104</v>
       </c>
       <c r="D22" t="n">
-        <v>-132.52</v>
+        <v>-57.32</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>614.29</v>
+        <v>607.1</v>
       </c>
       <c r="G22" t="n">
-        <v>-61.43</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -3166,16 +3166,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-144.53</v>
+        <v>-83.57</v>
       </c>
       <c r="O22" t="n">
-        <v>139.08</v>
+        <v>148.42</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>279.67</v>
+        <v>340.68</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-120.01</v>
+        <v>-59.05</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>386.93</v>
+        <v>447.94</v>
       </c>
       <c r="X22" t="n">
-        <v>-64.24</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.68</v>
+        <v>279.93</v>
       </c>
       <c r="Z22" t="n">
-        <v>-108.07</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="23">
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-51.46</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>101.96</v>
+        <v>129.61</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-73.99</v>
+        <v>-15.48</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3273,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>266.97</v>
+        <v>394.6</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.63</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>-67.2</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="24">
@@ -3296,16 +3296,16 @@
         <v>106</v>
       </c>
       <c r="D24" t="n">
-        <v>-101.23</v>
+        <v>-49.06</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>800.89</v>
+        <v>792.76</v>
       </c>
       <c r="G24" t="n">
-        <v>-42.57</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3326,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-71.36</v>
+        <v>-36.79</v>
       </c>
       <c r="O24" t="n">
-        <v>328.6</v>
+        <v>330.67</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.36</v>
+        <v>525.94</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-30.87</v>
+        <v>3.7</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>654.77</v>
+        <v>689.34</v>
       </c>
       <c r="X24" t="n">
-        <v>-37.12</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>387.58</v>
+        <v>439.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>-21.57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -3456,16 +3456,16 @@
         <v>107</v>
       </c>
       <c r="D26" t="n">
-        <v>-203.25</v>
+        <v>-94.76</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>720.09</v>
+        <v>678.22</v>
       </c>
       <c r="G26" t="n">
-        <v>-82.82</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-214.44</v>
+        <v>-138.36</v>
       </c>
       <c r="O26" t="n">
-        <v>118.42</v>
+        <v>120.38</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.72</v>
+        <v>325.34</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3504,25 +3504,25 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-201.67</v>
+        <v>-125.59</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>355.28</v>
+        <v>423.9</v>
       </c>
       <c r="X26" t="n">
-        <v>-118.71</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>190.02</v>
+        <v>323.99</v>
       </c>
       <c r="Z26" t="n">
-        <v>-132.31</v>
+        <v>-63.69</v>
       </c>
     </row>
     <row r="27">
@@ -3536,16 +3536,16 @@
         <v>108</v>
       </c>
       <c r="D27" t="n">
-        <v>-99.04</v>
+        <v>-30.49</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>551.45</v>
+        <v>560.97</v>
       </c>
       <c r="G27" t="n">
-        <v>-37.52</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3566,16 +3566,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-128.53</v>
+        <v>-65.09</v>
       </c>
       <c r="O27" t="n">
-        <v>-9.12</v>
+        <v>22.27</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>187.67</v>
+        <v>251.12</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-88.02</v>
+        <v>-24.57</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>182.37</v>
+        <v>254.61</v>
       </c>
       <c r="X27" t="n">
-        <v>-42.01</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.12</v>
+        <v>103.67</v>
       </c>
       <c r="Z27" t="n">
-        <v>-130.2</v>
+        <v>-66.76</v>
       </c>
     </row>
     <row r="28">
@@ -3616,16 +3616,16 @@
         <v>109</v>
       </c>
       <c r="D28" t="n">
-        <v>-124.87</v>
+        <v>-38.44</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>774.66</v>
+        <v>723.3</v>
       </c>
       <c r="G28" t="n">
-        <v>-69.82</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-117.45</v>
+        <v>-49.56</v>
       </c>
       <c r="O28" t="n">
-        <v>176.79</v>
+        <v>186.91</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.33</v>
+        <v>142.94</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-74.24</v>
+        <v>-6.35</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>322.11</v>
+        <v>386.72</v>
       </c>
       <c r="X28" t="n">
-        <v>-76.84</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.95</v>
+        <v>217.28</v>
       </c>
       <c r="Z28" t="n">
-        <v>-93.19</v>
+        <v>-28.58</v>
       </c>
     </row>
     <row r="29">
@@ -3696,13 +3696,13 @@
         <v>110</v>
       </c>
       <c r="D29" t="n">
-        <v>-118.53</v>
+        <v>-24.8</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>749.6</v>
+        <v>793.16</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-100.96</v>
+        <v>-34.2</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>317.77</v>
+        <v>384.38</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-37.75</v>
+        <v>28.99</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-70.3</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.48</v>
+        <v>147.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>-86.66</v>
+        <v>-19.91</v>
       </c>
     </row>
     <row r="30">
@@ -3776,16 +3776,16 @@
         <v>111</v>
       </c>
       <c r="D30" t="n">
-        <v>-152.19</v>
+        <v>-62.52</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1343.19</v>
+        <v>1151.62</v>
       </c>
       <c r="G30" t="n">
-        <v>-94.42</v>
+        <v>5.31</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-100.28</v>
+        <v>-43.69</v>
       </c>
       <c r="O30" t="n">
-        <v>715.76</v>
+        <v>601.72</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>527.46</v>
+        <v>583.14</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-41.32</v>
+        <v>15.19</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>737.59</v>
+        <v>794.47</v>
       </c>
       <c r="X30" t="n">
-        <v>-90.01</v>
+        <v>10.52</v>
       </c>
       <c r="Y30" t="n">
-        <v>289.16</v>
+        <v>378.83</v>
       </c>
       <c r="Z30" t="n">
-        <v>-99.59</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="31">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-42.66</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-14.47</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3889,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>5.87</v>
+        <v>37.45</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.42</v>
+        <v>181.57</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3907,22 +3907,22 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>101.71</v>
+        <v>271.23</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.53</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-78.84</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="32">
@@ -3936,16 +3936,16 @@
         <v>113</v>
       </c>
       <c r="D32" t="n">
-        <v>-112.42</v>
+        <v>-45</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>854.95</v>
+        <v>790.61</v>
       </c>
       <c r="G32" t="n">
-        <v>-55.37</v>
+        <v>5.31</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3966,16 +3966,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-103.32</v>
+        <v>-50.52</v>
       </c>
       <c r="O32" t="n">
-        <v>400.58</v>
+        <v>354.53</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>383.85</v>
+        <v>436.19</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-57.62</v>
+        <v>-4.86</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3993,16 +3993,16 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>562.71</v>
+        <v>615.09</v>
       </c>
       <c r="X32" t="n">
-        <v>-50.49</v>
+        <v>10.52</v>
       </c>
       <c r="Y32" t="n">
-        <v>207.86</v>
+        <v>275.27</v>
       </c>
       <c r="Z32" t="n">
-        <v>-93.46</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="33">
@@ -4016,16 +4016,16 @@
         <v>115</v>
       </c>
       <c r="D33" t="n">
-        <v>-128.35</v>
+        <v>-26.16</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1189.49</v>
+        <v>916</v>
       </c>
       <c r="G33" t="n">
-        <v>-85.9</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-58.56</v>
+        <v>15.15</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>592.01</v>
+        <v>665.72</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.77</v>
+        <v>72.94</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>412.09</v>
+        <v>489.06</v>
       </c>
       <c r="X33" t="n">
-        <v>-90.34</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8</v>
+        <v>267.99</v>
       </c>
       <c r="Z33" t="n">
-        <v>-20.76</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="34">
@@ -4096,16 +4096,16 @@
         <v>114</v>
       </c>
       <c r="D34" t="n">
-        <v>-60.33</v>
+        <v>-9.08</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>586.72</v>
+        <v>560.22</v>
       </c>
       <c r="G34" t="n">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-67.76</v>
+        <v>-16.6</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4135,34 +4135,34 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.43</v>
+        <v>284.62</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-44.06</v>
+        <v>-10.59</v>
       </c>
       <c r="T34" t="n">
-        <v>-16.4</v>
+        <v>49.49</v>
       </c>
       <c r="U34" t="n">
-        <v>-25.34</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>312.04</v>
+        <v>383.09</v>
       </c>
       <c r="X34" t="n">
-        <v>-50.78</v>
+        <v>21.94</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.79</v>
+        <v>218.74</v>
       </c>
       <c r="Z34" t="n">
-        <v>-53.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35">
@@ -4176,16 +4176,16 @@
         <v>116</v>
       </c>
       <c r="D35" t="n">
-        <v>-151.39</v>
+        <v>-37.57</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1867.52</v>
+        <v>1320.38</v>
       </c>
       <c r="G35" t="n">
-        <v>-116.47</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-17.97</v>
+        <v>54.9</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>969.5</v>
+        <v>1040.91</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.31</v>
+        <v>114.06</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4233,16 +4233,16 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>668.44</v>
+        <v>744.03</v>
       </c>
       <c r="X35" t="n">
-        <v>-114.68</v>
+        <v>35.68</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.26</v>
+        <v>410.09</v>
       </c>
       <c r="Z35" t="n">
-        <v>37.95</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="36">
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-175.05</v>
+        <v>-111.12</v>
       </c>
       <c r="G36" t="n">
-        <v>-66.18</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-178.85</v>
+        <v>-114.93</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-129.16</v>
+        <v>-37.12</v>
       </c>
       <c r="O36" t="n">
-        <v>-103.47</v>
+        <v>-50.73</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-76.51</v>
+        <v>4.39</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-129.09</v>
+        <v>-37.05</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>79.75</v>
+        <v>214.43</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-15.17</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>-101.63</v>
+        <v>-20.73</v>
       </c>
     </row>
     <row r="37">
@@ -4336,16 +4336,16 @@
         <v>117</v>
       </c>
       <c r="D37" t="n">
-        <v>-58.55</v>
+        <v>24.77</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2665.84</v>
+        <v>2047.57</v>
       </c>
       <c r="G37" t="n">
-        <v>-68.91</v>
+        <v>29.48</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>55.81</v>
+        <v>104.22</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4375,16 +4375,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1004.3</v>
+        <v>1041.73</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>163.03</v>
+        <v>211.47</v>
       </c>
       <c r="T37" t="n">
-        <v>259.12</v>
+        <v>305.15</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4393,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1015.47</v>
+        <v>1065.95</v>
       </c>
       <c r="X37" t="n">
-        <v>-40.9</v>
+        <v>73.79</v>
       </c>
       <c r="Y37" t="n">
-        <v>627.06</v>
+        <v>710.38</v>
       </c>
       <c r="Z37" t="n">
-        <v>103.63</v>
+        <v>151.48</v>
       </c>
     </row>
     <row r="38">
@@ -4416,16 +4416,16 @@
         <v>118</v>
       </c>
       <c r="D38" t="n">
-        <v>-115.02</v>
+        <v>-11.33</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1859.75</v>
+        <v>1409.34</v>
       </c>
       <c r="G38" t="n">
-        <v>-72.46</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-23.76</v>
+        <v>43.44</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4455,16 +4455,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>737.77</v>
+        <v>803.67</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-10.04</v>
+        <v>48.57</v>
       </c>
       <c r="T38" t="n">
-        <v>81.76</v>
+        <v>148.85</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4473,16 +4473,16 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>442.74</v>
+        <v>501.34</v>
       </c>
       <c r="X38" t="n">
-        <v>-88.29</v>
+        <v>51.46</v>
       </c>
       <c r="Y38" t="n">
-        <v>269.06</v>
+        <v>372.75</v>
       </c>
       <c r="Z38" t="n">
-        <v>17.6</v>
+        <v>84.73</v>
       </c>
     </row>
     <row r="39">
@@ -4496,16 +4496,16 @@
         <v>119</v>
       </c>
       <c r="D39" t="n">
-        <v>-104</v>
+        <v>-20.3</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>164.45</v>
+        <v>220.93</v>
       </c>
       <c r="G39" t="n">
-        <v>-62.54</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4520,22 +4520,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-178.85</v>
+        <v>-114.93</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-117.88</v>
+        <v>-38.85</v>
       </c>
       <c r="O39" t="n">
-        <v>-103.47</v>
+        <v>-50.73</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.44</v>
+        <v>148.76</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-97.72</v>
+        <v>-18.69</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4553,16 +4553,16 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>126.82</v>
+        <v>250.89</v>
       </c>
       <c r="X39" t="n">
-        <v>-61.07</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.69</v>
+        <v>117.81</v>
       </c>
       <c r="Z39" t="n">
-        <v>-98.68</v>
+        <v>-23.36</v>
       </c>
     </row>
     <row r="40">
@@ -4576,13 +4576,13 @@
         <v>120</v>
       </c>
       <c r="D40" t="n">
-        <v>-50.79</v>
+        <v>14.11</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>918.55</v>
+        <v>776.96</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-51.79</v>
+        <v>6.67</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4615,16 +4615,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.6</v>
+        <v>329.29</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-79.83</v>
+        <v>-16.59</v>
       </c>
       <c r="T40" t="n">
-        <v>9.95</v>
+        <v>75.48</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4636,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-42.72</v>
+        <v>54.8</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.68</v>
+        <v>429.39</v>
       </c>
       <c r="Z40" t="n">
-        <v>-33.53</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="41">
@@ -4656,16 +4656,16 @@
         <v>121</v>
       </c>
       <c r="D41" t="n">
-        <v>-101.75</v>
+        <v>-10.18</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1603.25</v>
+        <v>1384.77</v>
       </c>
       <c r="G41" t="n">
-        <v>-119.66</v>
+        <v>5.09</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.06</v>
+        <v>27.45</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>613.67</v>
+        <v>675.18</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>81.92</v>
+        <v>143.42</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4713,16 +4713,16 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>705.16</v>
+        <v>778.51</v>
       </c>
       <c r="X41" t="n">
-        <v>-81.06</v>
+        <v>34.05</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.72</v>
+        <v>380.29</v>
       </c>
       <c r="Z41" t="n">
-        <v>3.81</v>
+        <v>65.31</v>
       </c>
     </row>
     <row r="42">
@@ -4736,16 +4736,16 @@
         <v>122</v>
       </c>
       <c r="D42" t="n">
-        <v>-47.02</v>
+        <v>-9.32</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>156.54</v>
+        <v>186.14</v>
       </c>
       <c r="G42" t="n">
-        <v>-30.55</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4760,49 +4760,49 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-146.23</v>
+        <v>-98.37</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-79.77</v>
+        <v>-27</v>
       </c>
       <c r="O42" t="n">
-        <v>-130.66</v>
+        <v>-82.79</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.19</v>
+        <v>123.14</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>-61.81</v>
+        <v>-12.98</v>
       </c>
       <c r="T42" t="n">
-        <v>-61.31</v>
+        <v>-4.42</v>
       </c>
       <c r="U42" t="n">
-        <v>-57.6</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>37.97</v>
+        <v>137.16</v>
       </c>
       <c r="X42" t="n">
-        <v>-36.09</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.36</v>
+        <v>129.81</v>
       </c>
       <c r="Z42" t="n">
-        <v>-72.04</v>
+        <v>-17.51</v>
       </c>
     </row>
     <row r="43">
@@ -4816,16 +4816,16 @@
         <v>123</v>
       </c>
       <c r="D43" t="n">
-        <v>-104.03</v>
+        <v>-47.16</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>533.07</v>
+        <v>546.56</v>
       </c>
       <c r="G43" t="n">
-        <v>-107.65</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4834,52 +4834,52 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-100.76</v>
+        <v>-39.74</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>164.77</v>
+        <v>187.04</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-124.38</v>
+        <v>-54.53</v>
       </c>
       <c r="O43" t="n">
-        <v>336.81</v>
+        <v>355.97</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.98</v>
+        <v>191.83</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-96.32</v>
+        <v>-26.47</v>
       </c>
       <c r="T43" t="n">
-        <v>-121.6</v>
+        <v>-51.76</v>
       </c>
       <c r="U43" t="n">
-        <v>57.76</v>
+        <v>124.38</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>313.88</v>
+        <v>383.73</v>
       </c>
       <c r="X43" t="n">
-        <v>-108.31</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.22</v>
+        <v>207</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>124</v>
       </c>
       <c r="D44" t="n">
-        <v>-31.17</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>7.14</v>
+        <v>40.48</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4914,52 +4914,52 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-31.13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-82.79</v>
+        <v>-49.45</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-76.75</v>
+        <v>-39.26</v>
       </c>
       <c r="O44" t="n">
-        <v>2.43</v>
+        <v>35.78</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-26.35</v>
+        <v>28.03</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-75.15</v>
+        <v>-37.23</v>
       </c>
       <c r="T44" t="n">
-        <v>-75.38</v>
+        <v>-37.46</v>
       </c>
       <c r="U44" t="n">
-        <v>-61.64</v>
+        <v>-19.36</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-13.08</v>
+        <v>44.52</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-29.75</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -4976,13 +4976,13 @@
         <v>125</v>
       </c>
       <c r="D45" t="n">
-        <v>-26.69</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-18.17</v>
+        <v>20.07</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4994,52 +4994,52 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-26.64</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-111.91</v>
+        <v>-73.67</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-93.14</v>
+        <v>-30.84</v>
       </c>
       <c r="O45" t="n">
-        <v>-47.38</v>
+        <v>-9.14</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>-36.47</v>
+        <v>25.83</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>-91.41</v>
+        <v>-29.11</v>
       </c>
       <c r="T45" t="n">
-        <v>-91.96</v>
+        <v>-29.66</v>
       </c>
       <c r="U45" t="n">
-        <v>-80.17</v>
+        <v>-17.87</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>-40.17</v>
+        <v>22.13</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-25.33</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -5056,16 +5056,16 @@
         <v>126</v>
       </c>
       <c r="D46" t="n">
-        <v>-111.51</v>
+        <v>-37.19</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>390.48</v>
+        <v>426.59</v>
       </c>
       <c r="G46" t="n">
-        <v>-75.32</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5074,52 +5074,52 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-107.65</v>
+        <v>-28.94</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>105.79</v>
+        <v>142.8</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-133.76</v>
+        <v>-54.49</v>
       </c>
       <c r="O46" t="n">
-        <v>212.13</v>
+        <v>248.92</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>322.35</v>
+        <v>400.42</v>
       </c>
       <c r="R46" t="n">
-        <v>-149.74</v>
+        <v>-44.41</v>
       </c>
       <c r="S46" t="n">
-        <v>-131.09</v>
+        <v>-51.82</v>
       </c>
       <c r="T46" t="n">
-        <v>-144.04</v>
+        <v>-64.76</v>
       </c>
       <c r="U46" t="n">
-        <v>-30.66</v>
+        <v>48.41</v>
       </c>
       <c r="V46" t="n">
-        <v>-53.96</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>188.83</v>
+        <v>268.1</v>
       </c>
       <c r="X46" t="n">
-        <v>-75.5</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-30.35</v>
+        <v>106.24</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -5136,13 +5136,13 @@
         <v>127</v>
       </c>
       <c r="D47" t="n">
-        <v>-26.92</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-41.45</v>
+        <v>3.22</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -5154,52 +5154,52 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-26.93</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-112.98</v>
+        <v>-68.31</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-66.97</v>
+        <v>-46.32</v>
       </c>
       <c r="O47" t="n">
-        <v>-45.7</v>
+        <v>-1.03</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>10.65</v>
+        <v>29.22</v>
       </c>
       <c r="R47" t="n">
-        <v>-14.69</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-66.57</v>
+        <v>-43.38</v>
       </c>
       <c r="T47" t="n">
-        <v>-67.32</v>
+        <v>-44.69</v>
       </c>
       <c r="U47" t="n">
-        <v>-55.98</v>
+        <v>-21.31</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>-37.01</v>
+        <v>19.1</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-24.67</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -5216,70 +5216,70 @@
         <v>128</v>
       </c>
       <c r="D48" t="n">
-        <v>-104.04</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>30.92</v>
+        <v>81.49</v>
       </c>
       <c r="G48" t="n">
-        <v>-45.82</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-57.13</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-110.07</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-116.14</v>
+        <v>-64.78</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-152.08</v>
+        <v>-118.96</v>
       </c>
       <c r="O48" t="n">
-        <v>-108.54</v>
+        <v>-57.15</v>
       </c>
       <c r="P48" t="n">
-        <v>-113.7</v>
+        <v>-97.19</v>
       </c>
       <c r="Q48" t="n">
-        <v>-167.94</v>
+        <v>-53.69</v>
       </c>
       <c r="R48" t="n">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>-150.39</v>
+        <v>-113.76</v>
       </c>
       <c r="U48" t="n">
-        <v>-108.55</v>
+        <v>-37.17</v>
       </c>
       <c r="V48" t="n">
-        <v>-38.94</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>55.37</v>
+        <v>184.98</v>
       </c>
       <c r="X48" t="n">
-        <v>-45.94</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>-61.08</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>129</v>
       </c>
       <c r="D49" t="n">
-        <v>-165.03</v>
+        <v>-54.52</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>265.49</v>
+        <v>277.12</v>
       </c>
       <c r="G49" t="n">
-        <v>-80.72</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5314,28 +5314,28 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-176.26</v>
+        <v>-95.82</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-83.44</v>
+        <v>-31.7</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-257.35</v>
+        <v>-158.29</v>
       </c>
       <c r="O49" t="n">
-        <v>91.94</v>
+        <v>105.74</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>77.78</v>
+        <v>176.84</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -5344,25 +5344,25 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>-249.54</v>
+        <v>-150.48</v>
       </c>
       <c r="U49" t="n">
-        <v>-75.35</v>
+        <v>12.67</v>
       </c>
       <c r="V49" t="n">
-        <v>-47.93</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>160.01</v>
+        <v>259.49</v>
       </c>
       <c r="X49" t="n">
-        <v>-76.71</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>-91.29</v>
+        <v>58.88</v>
       </c>
       <c r="Z49" t="n">
-        <v>-197.51</v>
+        <v>-101.89</v>
       </c>
     </row>
     <row r="50">
@@ -5376,16 +5376,16 @@
         <v>130</v>
       </c>
       <c r="D50" t="n">
-        <v>-81.83</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-30.9</v>
+        <v>21.95</v>
       </c>
       <c r="G50" t="n">
-        <v>-49.08</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5394,28 +5394,28 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-81.89</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-134.21</v>
+        <v>-74.34</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-153.76</v>
+        <v>-61.67</v>
       </c>
       <c r="O50" t="n">
-        <v>-88.94</v>
+        <v>-33.99</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>-52.08</v>
+        <v>50.8</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5424,25 +5424,25 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-153.43</v>
+        <v>-61.41</v>
       </c>
       <c r="U50" t="n">
-        <v>-116.79</v>
+        <v>-21.94</v>
       </c>
       <c r="V50" t="n">
-        <v>-39.01</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>-27.64</v>
+        <v>78.56</v>
       </c>
       <c r="X50" t="n">
-        <v>-49.22</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>-67.75</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>-144.06</v>
+        <v>-48.15</v>
       </c>
     </row>
     <row r="51">
@@ -5456,13 +5456,13 @@
         <v>131</v>
       </c>
       <c r="D51" t="n">
-        <v>-77.19</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-10.49</v>
+        <v>56.61</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5474,28 +5474,28 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-77.32</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-156.31</v>
+        <v>-89.22</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-143.63</v>
+        <v>-55.55</v>
       </c>
       <c r="O51" t="n">
-        <v>-108.65</v>
+        <v>-41.56</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>-75.58</v>
+        <v>33.06</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5504,22 +5504,22 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-138.74</v>
+        <v>-47.97</v>
       </c>
       <c r="U51" t="n">
-        <v>-115.15</v>
+        <v>-10.34</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-35.24</v>
+        <v>113.56</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-68.39</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -5536,70 +5536,70 @@
         <v>132</v>
       </c>
       <c r="D52" t="n">
-        <v>-151.25</v>
+        <v>-74.33</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>146.07</v>
+        <v>171.87</v>
       </c>
       <c r="G52" t="n">
-        <v>-100.75</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-57.13</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-164.67</v>
+        <v>-107.33</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-126.28</v>
+        <v>-71.21</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-229.79</v>
+        <v>-150.53</v>
       </c>
       <c r="O52" t="n">
-        <v>-9.19</v>
+        <v>22.71</v>
       </c>
       <c r="P52" t="n">
-        <v>-129.62</v>
+        <v>-97.19</v>
       </c>
       <c r="Q52" t="n">
-        <v>-125.28</v>
+        <v>-17.4</v>
       </c>
       <c r="R52" t="n">
-        <v>-149.93</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-215.58</v>
+        <v>-134.53</v>
       </c>
       <c r="U52" t="n">
-        <v>-87.27</v>
+        <v>4.92</v>
       </c>
       <c r="V52" t="n">
-        <v>-71.08</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>102.81</v>
+        <v>229.76</v>
       </c>
       <c r="X52" t="n">
-        <v>-101.49</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-58.15</v>
+        <v>141.8</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>133</v>
       </c>
       <c r="D53" t="n">
-        <v>-50.55</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-58.54</v>
+        <v>9.95</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5634,28 +5634,28 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-50.71</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-140.97</v>
+        <v>-87.27</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-104.19</v>
+        <v>-37.59</v>
       </c>
       <c r="O53" t="n">
-        <v>-117.96</v>
+        <v>-60.99</v>
       </c>
       <c r="P53" t="n">
-        <v>-55.96</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>-117.81</v>
+        <v>-4.26</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -5664,22 +5664,22 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>-101.82</v>
+        <v>-34.04</v>
       </c>
       <c r="U53" t="n">
-        <v>-93.21</v>
+        <v>-17.38</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>-57.72</v>
+        <v>44.06</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>-48.16</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -5696,16 +5696,16 @@
         <v>135</v>
       </c>
       <c r="D54" t="n">
-        <v>-123.28</v>
+        <v>-32.98</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1871.83</v>
+        <v>1426.57</v>
       </c>
       <c r="G54" t="n">
-        <v>-81.63</v>
+        <v>29.91</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-100.07</v>
+        <v>-15.22</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5726,43 +5726,43 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-43.58</v>
+        <v>12.03</v>
       </c>
       <c r="O54" t="n">
-        <v>1160.92</v>
+        <v>968.22</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>817.05</v>
+        <v>867.98</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>81.68</v>
+        <v>135.7</v>
       </c>
       <c r="T54" t="n">
-        <v>23.53</v>
+        <v>78.9</v>
       </c>
       <c r="U54" t="n">
-        <v>669.03</v>
+        <v>644.43</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>1013.9</v>
+        <v>1070.99</v>
       </c>
       <c r="X54" t="n">
-        <v>-87.66</v>
+        <v>28.02</v>
       </c>
       <c r="Y54" t="n">
-        <v>486.5</v>
+        <v>578.22</v>
       </c>
       <c r="Z54" t="n">
-        <v>17.33</v>
+        <v>72.47</v>
       </c>
     </row>
     <row r="55">
@@ -5776,13 +5776,13 @@
         <v>136</v>
       </c>
       <c r="D55" t="n">
-        <v>-68.33</v>
+        <v>-5.55</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>498.36</v>
+        <v>497.69</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-76.77</v>
+        <v>-15.32</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>219.55</v>
+        <v>280.99</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>-69.6</v>
+        <v>-8.16</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>-28.19</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>46.42</v>
+        <v>336.06</v>
       </c>
       <c r="Z55" t="n">
-        <v>-60.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="56">
@@ -5856,13 +5856,13 @@
         <v>137</v>
       </c>
       <c r="D56" t="n">
-        <v>-60.59</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>263.52</v>
+        <v>290.82</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-93.4</v>
+        <v>-28.68</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>61.89</v>
+        <v>126.62</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-79.45</v>
+        <v>-14.73</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>-28.39</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-20.67</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>-84.12</v>
+        <v>-19.39</v>
       </c>
     </row>
     <row r="57">
@@ -5936,16 +5936,16 @@
         <v>138</v>
       </c>
       <c r="D57" t="n">
-        <v>-141.41</v>
+        <v>-41.84</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1884.49</v>
+        <v>1373.24</v>
       </c>
       <c r="G57" t="n">
-        <v>-99.63</v>
+        <v>26.75</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-48.96</v>
+        <v>12.37</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5975,34 +5975,34 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>764.56</v>
+        <v>825.89</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>54.34</v>
+        <v>115.67</v>
       </c>
       <c r="T57" t="n">
-        <v>13.81</v>
+        <v>75.14</v>
       </c>
       <c r="U57" t="n">
-        <v>701.49</v>
+        <v>661.33</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>1013.44</v>
+        <v>1074.77</v>
       </c>
       <c r="X57" t="n">
-        <v>-106.43</v>
+        <v>21.64</v>
       </c>
       <c r="Y57" t="n">
-        <v>486.94</v>
+        <v>586.51</v>
       </c>
       <c r="Z57" t="n">
-        <v>-12.06</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="58">
@@ -6016,13 +6016,13 @@
         <v>139</v>
       </c>
       <c r="D58" t="n">
-        <v>-92.8</v>
+        <v>-24.49</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>395.84</v>
+        <v>419.41</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-103.91</v>
+        <v>-39.95</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -6055,16 +6055,16 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>170.61</v>
+        <v>234.57</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>-74.8</v>
+        <v>-11.36</v>
       </c>
       <c r="T58" t="n">
-        <v>-90.34</v>
+        <v>-26.38</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6076,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>-3.04</v>
+        <v>112.89</v>
       </c>
       <c r="Z58" t="n">
-        <v>-88.6</v>
+        <v>-24.64</v>
       </c>
     </row>
     <row r="59">
@@ -6096,16 +6096,16 @@
         <v>134</v>
       </c>
       <c r="D59" t="n">
-        <v>-121.33</v>
+        <v>-26.9</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>788.26</v>
+        <v>769.28</v>
       </c>
       <c r="G59" t="n">
-        <v>-90.87</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-139.25</v>
+        <v>-32.89</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -6126,43 +6126,43 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-92.8</v>
+        <v>-30.88</v>
       </c>
       <c r="O59" t="n">
-        <v>394.57</v>
+        <v>436.19</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>344.77</v>
+        <v>406.7</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-38.73</v>
+        <v>23.2</v>
       </c>
       <c r="T59" t="n">
-        <v>-61.08</v>
+        <v>0.85</v>
       </c>
       <c r="U59" t="n">
-        <v>238.13</v>
+        <v>294.33</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>556.93</v>
+        <v>618.06</v>
       </c>
       <c r="X59" t="n">
-        <v>-79.02</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>106.17</v>
+        <v>200.59</v>
       </c>
       <c r="Z59" t="n">
-        <v>-74.68</v>
+        <v>-12.75</v>
       </c>
     </row>
     <row r="60">
@@ -6176,13 +6176,13 @@
         <v>140</v>
       </c>
       <c r="D60" t="n">
-        <v>-85.95</v>
+        <v>-17.24</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>426.25</v>
+        <v>432.14</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-91.52</v>
+        <v>-30.03</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -6215,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>185.35</v>
+        <v>246.84</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>-77.16</v>
+        <v>-14.31</v>
       </c>
       <c r="T60" t="n">
-        <v>-83.03</v>
+        <v>-21.54</v>
       </c>
       <c r="U60" t="n">
-        <v>14.23</v>
+        <v>72.8</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>-49.21</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>21.91</v>
+        <v>166.55</v>
       </c>
       <c r="Z60" t="n">
-        <v>-81.38</v>
+        <v>-19.89</v>
       </c>
     </row>
     <row r="61">
@@ -6256,13 +6256,13 @@
         <v>141</v>
       </c>
       <c r="D61" t="n">
-        <v>-89.02</v>
+        <v>-14.91</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>495.87</v>
+        <v>501.81</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-86.77</v>
+        <v>-24.9</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -6295,16 +6295,16 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>232.13</v>
+        <v>294</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>-65.38</v>
+        <v>-2.19</v>
       </c>
       <c r="T61" t="n">
-        <v>-73.13</v>
+        <v>-11.26</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>-45.4</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>38.18</v>
+        <v>188.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>-67.98</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="62">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1827.16</v>
+        <v>1458.49</v>
       </c>
       <c r="G62" t="n">
-        <v>-136.03</v>
+        <v>-1.48</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-156.61</v>
+        <v>-94.9</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>606.11</v>
+        <v>665.42</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>-69.06</v>
+        <v>-7.35</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>700.16</v>
+        <v>761.87</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>-72.63</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="63">
@@ -6416,13 +6416,13 @@
         <v>143</v>
       </c>
       <c r="D63" t="n">
-        <v>-109.6</v>
+        <v>-17.45</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>386.68</v>
+        <v>413.94</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-120.44</v>
+        <v>-53.95</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>160.78</v>
+        <v>227.27</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>-85.28</v>
+        <v>-18.79</v>
       </c>
       <c r="T63" t="n">
-        <v>-102.83</v>
+        <v>-36.35</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>-41.94</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>-18.79</v>
+        <v>73.36</v>
       </c>
       <c r="Z63" t="n">
-        <v>-104.97</v>
+        <v>-38.48</v>
       </c>
     </row>
     <row r="64">
@@ -6496,16 +6496,16 @@
         <v>144</v>
       </c>
       <c r="D64" t="n">
-        <v>-85.07</v>
+        <v>-3.28</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1661.09</v>
+        <v>1345.27</v>
       </c>
       <c r="G64" t="n">
-        <v>-76.81</v>
+        <v>14.08</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-43.74</v>
+        <v>12.21</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>518.19</v>
+        <v>573.47</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>91.61</v>
+        <v>141.09</v>
       </c>
       <c r="T64" t="n">
-        <v>48.39</v>
+        <v>104.22</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -6553,16 +6553,16 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>810.32</v>
+        <v>859.8</v>
       </c>
       <c r="X64" t="n">
-        <v>-59.29</v>
+        <v>35.74</v>
       </c>
       <c r="Y64" t="n">
-        <v>271.29</v>
+        <v>423.3</v>
       </c>
       <c r="Z64" t="n">
-        <v>-13.43</v>
+        <v>42.48</v>
       </c>
     </row>
     <row r="65">
@@ -6576,16 +6576,16 @@
         <v>146</v>
       </c>
       <c r="D65" t="n">
-        <v>-130.79</v>
+        <v>-38.94</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1124.24</v>
+        <v>970.59</v>
       </c>
       <c r="G65" t="n">
-        <v>-72.14</v>
+        <v>31.97</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-117.57</v>
+        <v>-26.73</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6606,40 +6606,40 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-94.44</v>
+        <v>-35.87</v>
       </c>
       <c r="O65" t="n">
-        <v>830.33</v>
+        <v>702.56</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>491.68</v>
+        <v>550.25</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-19.31</v>
+        <v>39.26</v>
       </c>
       <c r="T65" t="n">
-        <v>-17.78</v>
+        <v>40.79</v>
       </c>
       <c r="U65" t="n">
-        <v>322.96</v>
+        <v>344.21</v>
       </c>
       <c r="V65" t="n">
-        <v>-68.3</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>615.43</v>
+        <v>674.01</v>
       </c>
       <c r="X65" t="n">
-        <v>-74.1</v>
+        <v>26</v>
       </c>
       <c r="Y65" t="n">
-        <v>225.19</v>
+        <v>317.04</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -6656,16 +6656,16 @@
         <v>147</v>
       </c>
       <c r="D66" t="n">
-        <v>-97.36</v>
+        <v>-31.92</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>676.37</v>
+        <v>586.66</v>
       </c>
       <c r="G66" t="n">
-        <v>-56.52</v>
+        <v>36.61</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6674,52 +6674,52 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>-96.28</v>
+        <v>-30.63</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-29.22</v>
+        <v>4.65</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-114.74</v>
+        <v>-50.92</v>
       </c>
       <c r="O66" t="n">
-        <v>488.38</v>
+        <v>429.99</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>233.21</v>
+        <v>297.02</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-55.24</v>
+        <v>8.58</v>
       </c>
       <c r="T66" t="n">
-        <v>-68.04</v>
+        <v>-4.23</v>
       </c>
       <c r="U66" t="n">
-        <v>134.51</v>
+        <v>168.51</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>321.08</v>
+        <v>384.89</v>
       </c>
       <c r="X66" t="n">
-        <v>-58.08</v>
+        <v>31.42</v>
       </c>
       <c r="Y66" t="n">
-        <v>79.48</v>
+        <v>233.42</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         <v>148</v>
       </c>
       <c r="D67" t="n">
-        <v>-135.75</v>
+        <v>-44.63</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1234.76</v>
+        <v>1120.24</v>
       </c>
       <c r="G67" t="n">
-        <v>-74.7</v>
+        <v>37.01</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-129.1</v>
+        <v>-37.99</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -6766,43 +6766,43 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>-92.34</v>
+        <v>-34.77</v>
       </c>
       <c r="O67" t="n">
-        <v>743.65</v>
+        <v>634.77</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>640.19</v>
+        <v>697.71</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-4.34</v>
+        <v>53.23</v>
       </c>
       <c r="T67" t="n">
-        <v>-28.03</v>
+        <v>29.54</v>
       </c>
       <c r="U67" t="n">
-        <v>379.79</v>
+        <v>424.11</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>762.38</v>
+        <v>819.98</v>
       </c>
       <c r="X67" t="n">
-        <v>-80.14</v>
+        <v>28.73</v>
       </c>
       <c r="Y67" t="n">
-        <v>313.43</v>
+        <v>404.54</v>
       </c>
       <c r="Z67" t="n">
-        <v>108.92</v>
+        <v>157.76</v>
       </c>
     </row>
     <row r="68">
@@ -6816,16 +6816,16 @@
         <v>149</v>
       </c>
       <c r="D68" t="n">
-        <v>-120.59</v>
+        <v>-31.35</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>231.5</v>
+        <v>265.53</v>
       </c>
       <c r="G68" t="n">
-        <v>-47.64</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-114.34</v>
+        <v>-32.71</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6846,40 +6846,40 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-175.96</v>
+        <v>-100</v>
       </c>
       <c r="O68" t="n">
-        <v>250.12</v>
+        <v>281.41</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>96.55</v>
+        <v>172.5</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>-131.19</v>
+        <v>-55.24</v>
       </c>
       <c r="T68" t="n">
-        <v>-144.44</v>
+        <v>-68.49</v>
       </c>
       <c r="U68" t="n">
-        <v>-54.97</v>
+        <v>20.81</v>
       </c>
       <c r="V68" t="n">
-        <v>-51.48</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>135.17</v>
+        <v>211.13</v>
       </c>
       <c r="X68" t="n">
-        <v>-47.77</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>-21.8</v>
+        <v>96.42</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6896,16 +6896,16 @@
         <v>150</v>
       </c>
       <c r="D69" t="n">
-        <v>-113.89</v>
+        <v>-43.59</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>348.78</v>
+        <v>373.82</v>
       </c>
       <c r="G69" t="n">
-        <v>-85.88</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6914,52 +6914,52 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-113.01</v>
+        <v>-42.38</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>22.66</v>
+        <v>56.97</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-124.7</v>
+        <v>-59.11</v>
       </c>
       <c r="O69" t="n">
-        <v>214.79</v>
+        <v>241.26</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>156.46</v>
+        <v>222.06</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>-91.77</v>
+        <v>-26.17</v>
       </c>
       <c r="T69" t="n">
-        <v>-113.29</v>
+        <v>-47.7</v>
       </c>
       <c r="U69" t="n">
-        <v>34.55</v>
+        <v>99.19</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>282.3</v>
+        <v>347.89</v>
       </c>
       <c r="X69" t="n">
-        <v>-85.25</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.93</v>
+        <v>134.71</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>151</v>
       </c>
       <c r="D70" t="n">
-        <v>-101.24</v>
+        <v>-24.75</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>909.54</v>
+        <v>766.79</v>
       </c>
       <c r="G70" t="n">
-        <v>-63.61</v>
+        <v>31.92</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-99.19</v>
+        <v>-22.82</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -7006,40 +7006,40 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>-81.87</v>
+        <v>-22.58</v>
       </c>
       <c r="O70" t="n">
-        <v>618.38</v>
+        <v>521.63</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>366.59</v>
+        <v>425.78</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>-15.01</v>
+        <v>44.27</v>
       </c>
       <c r="T70" t="n">
-        <v>-29.14</v>
+        <v>30.14</v>
       </c>
       <c r="U70" t="n">
-        <v>245.71</v>
+        <v>267.31</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>477.5</v>
+        <v>536.82</v>
       </c>
       <c r="X70" t="n">
-        <v>-65.78</v>
+        <v>26.8</v>
       </c>
       <c r="Y70" t="n">
-        <v>136.03</v>
+        <v>305.66</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -7056,16 +7056,16 @@
         <v>152</v>
       </c>
       <c r="D71" t="n">
-        <v>-79.97</v>
+        <v>0.16</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1383.58</v>
+        <v>1195.76</v>
       </c>
       <c r="G71" t="n">
-        <v>-48.28</v>
+        <v>44.42</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-66.54</v>
+        <v>16.53</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -7086,43 +7086,43 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>-9.03</v>
+        <v>43.42</v>
       </c>
       <c r="O71" t="n">
-        <v>1127.24</v>
+        <v>971.01</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>640.68</v>
+        <v>692.91</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>90.82</v>
+        <v>143.24</v>
       </c>
       <c r="T71" t="n">
-        <v>82.33</v>
+        <v>134.74</v>
       </c>
       <c r="U71" t="n">
-        <v>441.86</v>
+        <v>480.6</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>813.15</v>
+        <v>865.67</v>
       </c>
       <c r="X71" t="n">
-        <v>-55.11</v>
+        <v>35.32</v>
       </c>
       <c r="Y71" t="n">
-        <v>336.33</v>
+        <v>526.01</v>
       </c>
       <c r="Z71" t="n">
-        <v>47.78</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="72">
@@ -7136,16 +7136,16 @@
         <v>154</v>
       </c>
       <c r="D72" t="n">
-        <v>-200.71</v>
+        <v>-73.07</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>713.94</v>
+        <v>724.68</v>
       </c>
       <c r="G72" t="n">
-        <v>-110.79</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>-231.85</v>
+        <v>-152.85</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>232.4</v>
+        <v>311.39</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>-210.73</v>
+        <v>-131.74</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -7193,16 +7193,16 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>387.45</v>
+        <v>466.45</v>
       </c>
       <c r="X72" t="n">
-        <v>-111.72</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>32.29</v>
+        <v>159.94</v>
       </c>
       <c r="Z72" t="n">
-        <v>-204.94</v>
+        <v>-125.95</v>
       </c>
     </row>
     <row r="73">
@@ -7216,13 +7216,13 @@
         <v>155</v>
       </c>
       <c r="D73" t="n">
-        <v>-151.27</v>
+        <v>-37.66</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>751.25</v>
+        <v>773.93</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>-203.51</v>
+        <v>-133.24</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>299.09</v>
+        <v>369.36</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>-176.28</v>
+        <v>-106.01</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -7273,16 +7273,16 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>430.12</v>
+        <v>500.38</v>
       </c>
       <c r="X73" t="n">
-        <v>-102.8</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>92.9</v>
+        <v>206.51</v>
       </c>
       <c r="Z73" t="n">
-        <v>-180.89</v>
+        <v>-110.62</v>
       </c>
     </row>
     <row r="74">
@@ -7296,13 +7296,13 @@
         <v>156</v>
       </c>
       <c r="D74" t="n">
-        <v>-169.45</v>
+        <v>-47.64</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>471.44</v>
+        <v>505.68</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>-250.81</v>
+        <v>-171.75</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>176.65</v>
+        <v>255.71</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>-239.14</v>
+        <v>-160.08</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -7353,16 +7353,16 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>313.41</v>
+        <v>392.48</v>
       </c>
       <c r="X74" t="n">
-        <v>-84.07</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>13.24</v>
+        <v>135.05</v>
       </c>
       <c r="Z74" t="n">
-        <v>-224.36</v>
+        <v>-145.3</v>
       </c>
     </row>
     <row r="75">
@@ -7376,16 +7376,16 @@
         <v>157</v>
       </c>
       <c r="D75" t="n">
-        <v>-209.12</v>
+        <v>-73.39</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>679.52</v>
+        <v>643.17</v>
       </c>
       <c r="G75" t="n">
-        <v>-76.39</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-206.26</v>
+        <v>-69.76</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -7406,16 +7406,16 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>-250.27</v>
+        <v>-162.29</v>
       </c>
       <c r="O75" t="n">
-        <v>161.75</v>
+        <v>194.11</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>435.41</v>
+        <v>523.38</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -7424,25 +7424,25 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>-262.78</v>
+        <v>-174.81</v>
       </c>
       <c r="U75" t="n">
-        <v>-93.39</v>
+        <v>-4.51</v>
       </c>
       <c r="V75" t="n">
-        <v>-59.52</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>370.82</v>
+        <v>457</v>
       </c>
       <c r="X75" t="n">
-        <v>-109.81</v>
+        <v>-12.69</v>
       </c>
       <c r="Y75" t="n">
-        <v>-59.92</v>
+        <v>75.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>-220.63</v>
+        <v>-133.14</v>
       </c>
     </row>
     <row r="76">
@@ -7456,13 +7456,13 @@
         <v>153</v>
       </c>
       <c r="D76" t="n">
-        <v>-199.57</v>
+        <v>-65.44</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>657.77</v>
+        <v>660.65</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-267.13</v>
+        <v>-181.9</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>230.2</v>
+        <v>315.43</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>-260.74</v>
+        <v>-175.5</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -7513,16 +7513,16 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>369.88</v>
+        <v>455.12</v>
       </c>
       <c r="X76" t="n">
-        <v>-119.08</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>18.63</v>
+        <v>152.76</v>
       </c>
       <c r="Z76" t="n">
-        <v>-240.2</v>
+        <v>-154.96</v>
       </c>
     </row>
     <row r="77">
@@ -7536,16 +7536,16 @@
         <v>158</v>
       </c>
       <c r="D77" t="n">
-        <v>-368.06</v>
+        <v>-227.95</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2094.25</v>
+        <v>1286.2</v>
       </c>
       <c r="G77" t="n">
-        <v>-246.05</v>
+        <v>-47.47</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>-315.81</v>
+        <v>-229.77</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>666.11</v>
+        <v>751.24</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>-286.12</v>
+        <v>-200.11</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -7593,16 +7593,16 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>863.61</v>
+        <v>949.94</v>
       </c>
       <c r="X77" t="n">
-        <v>-243.92</v>
+        <v>-53.58</v>
       </c>
       <c r="Y77" t="n">
-        <v>275.2</v>
+        <v>415.32</v>
       </c>
       <c r="Z77" t="n">
-        <v>-258.17</v>
+        <v>-172.17</v>
       </c>
     </row>
     <row r="78">
@@ -7616,16 +7616,16 @@
         <v>159</v>
       </c>
       <c r="D78" t="n">
-        <v>-151.27</v>
+        <v>-37.66</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1389.42</v>
+        <v>1198.24</v>
       </c>
       <c r="G78" t="n">
-        <v>-155.83</v>
+        <v>-8.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>-208.1</v>
+        <v>-139.45</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>299.09</v>
+        <v>369.36</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>-125.88</v>
+        <v>-57.24</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>-83.78</v>
+        <v>68.54</v>
       </c>
       <c r="W78" t="n">
-        <v>579.17</v>
+        <v>647.81</v>
       </c>
       <c r="X78" t="n">
-        <v>-102.8</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>92.9</v>
+        <v>206.51</v>
       </c>
       <c r="Z78" t="n">
-        <v>-180.89</v>
+        <v>-110.62</v>
       </c>
     </row>
     <row r="79">
@@ -7696,16 +7696,16 @@
         <v>160</v>
       </c>
       <c r="D79" t="n">
-        <v>-227.45</v>
+        <v>-86.39</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>582.94</v>
+        <v>570.08</v>
       </c>
       <c r="G79" t="n">
-        <v>-96.09</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7726,16 +7726,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>-297.25</v>
+        <v>-206.17</v>
       </c>
       <c r="O79" t="n">
-        <v>-145.95</v>
+        <v>-115.76</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>186.69</v>
+        <v>277.78</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-288.86</v>
+        <v>-197.78</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -7753,16 +7753,16 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>307.31</v>
+        <v>398.39</v>
       </c>
       <c r="X79" t="n">
-        <v>-112.5</v>
+        <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>-32.67</v>
+        <v>108.39</v>
       </c>
       <c r="Z79" t="n">
-        <v>-276.19</v>
+        <v>-185.11</v>
       </c>
     </row>
     <row r="80">
@@ -7776,16 +7776,16 @@
         <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>-203.81</v>
+        <v>-71.33</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1181.84</v>
+        <v>1056.44</v>
       </c>
       <c r="G80" t="n">
-        <v>-116.32</v>
+        <v>4.72</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>-173.6</v>
+        <v>-102.74</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>411.87</v>
+        <v>482.73</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>-142.5</v>
+        <v>-71.64</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7833,16 +7833,16 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>536.32</v>
+        <v>607.18</v>
       </c>
       <c r="X80" t="n">
-        <v>-111.25</v>
+        <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>27.64</v>
+        <v>160.12</v>
       </c>
       <c r="Z80" t="n">
-        <v>-137.39</v>
+        <v>-66.53</v>
       </c>
     </row>
     <row r="81">
@@ -7856,13 +7856,13 @@
         <v>163</v>
       </c>
       <c r="D81" t="n">
-        <v>-22.1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-123.15</v>
+        <v>-41.63</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -7874,22 +7874,22 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-22.12</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>-206.11</v>
+        <v>-124.59</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>-98.52</v>
+        <v>-38.78</v>
       </c>
       <c r="O81" t="n">
-        <v>-148.26</v>
+        <v>-66.74</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -7904,22 +7904,22 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-98.14</v>
+        <v>-37.95</v>
       </c>
       <c r="U81" t="n">
-        <v>-91.67</v>
+        <v>-24.71</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>-71.19</v>
+        <v>15.99</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>-21.72</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -7936,13 +7936,13 @@
         <v>164</v>
       </c>
       <c r="D82" t="n">
-        <v>-53.29</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-100.85</v>
+        <v>-30.84</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -7954,22 +7954,22 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>-53.31</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>-198.17</v>
+        <v>-122.46</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>-141.49</v>
+        <v>-92.53</v>
       </c>
       <c r="O82" t="n">
-        <v>-140.28</v>
+        <v>-70.27</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -7981,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>-143.65</v>
+        <v>-102.08</v>
       </c>
       <c r="T82" t="n">
-        <v>-140.8</v>
+        <v>-91.45</v>
       </c>
       <c r="U82" t="n">
-        <v>-115.83</v>
+        <v>-50</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>-50.7</v>
+        <v>56.45</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>-48.62</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -8016,13 +8016,13 @@
         <v>165</v>
       </c>
       <c r="D83" t="n">
-        <v>-75.17</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-15.9</v>
+        <v>35.65</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -8034,52 +8034,52 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-75.37</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>-194.68</v>
+        <v>-129.82</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>-207.61</v>
+        <v>-106.84</v>
       </c>
       <c r="O83" t="n">
-        <v>-75.57</v>
+        <v>-24.02</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>-67.48</v>
+        <v>31.13</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>-197.48</v>
+        <v>-99.17</v>
       </c>
       <c r="T83" t="n">
-        <v>-205.24</v>
+        <v>-104.47</v>
       </c>
       <c r="U83" t="n">
-        <v>-153.55</v>
+        <v>-52.78</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>-15.82</v>
+        <v>84.95</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>-60.3</v>
+        <v>0</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>166</v>
       </c>
       <c r="D84" t="n">
-        <v>-77.37</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-79.3</v>
+        <v>-29.19</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -8114,52 +8114,52 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-77.42</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>-145.65</v>
+        <v>-99.04</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>-227.83</v>
+        <v>-121.34</v>
       </c>
       <c r="O84" t="n">
-        <v>-118.16</v>
+        <v>-68.04</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>-112.78</v>
+        <v>-7.46</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>-216.5</v>
+        <v>-111.18</v>
       </c>
       <c r="T84" t="n">
-        <v>-228.43</v>
+        <v>-121.94</v>
       </c>
       <c r="U84" t="n">
-        <v>-178.05</v>
+        <v>-71.56</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>-61.96</v>
+        <v>44.53</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>-67.99</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -8176,16 +8176,16 @@
         <v>162</v>
       </c>
       <c r="D85" t="n">
-        <v>-124.41</v>
+        <v>-48.46</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-39.44</v>
+        <v>26.81</v>
       </c>
       <c r="G85" t="n">
-        <v>-27.99</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8194,28 +8194,28 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-123.28</v>
+        <v>-46.2</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>-186.72</v>
+        <v>-111.32</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>-185.04</v>
+        <v>-140.88</v>
       </c>
       <c r="O85" t="n">
-        <v>-96.98</v>
+        <v>-30.73</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>-9.59</v>
+        <v>93.68</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-187.17</v>
+        <v>-144.12</v>
       </c>
       <c r="U85" t="n">
-        <v>-125.67</v>
+        <v>-53.06</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>-9.6</v>
+        <v>116.89</v>
       </c>
       <c r="X85" t="n">
-        <v>-28.09</v>
+        <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>-90.19</v>
+        <v>17.49</v>
       </c>
       <c r="Z85" t="n">
         <v>0</v>
@@ -8256,13 +8256,13 @@
         <v>167</v>
       </c>
       <c r="D86" t="n">
-        <v>-103.36</v>
+        <v>-51.02</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.23</v>
+        <v>51.8</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -8274,28 +8274,28 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-104.27</v>
+        <v>-53.18</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-234.41</v>
+        <v>-177.38</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>-239.51</v>
+        <v>-129.36</v>
       </c>
       <c r="O86" t="n">
-        <v>-66.65</v>
+        <v>-9.62</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>95.29</v>
+        <v>205.18</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -8304,22 +8304,22 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>-235.51</v>
+        <v>-125.36</v>
       </c>
       <c r="U86" t="n">
-        <v>-164.41</v>
+        <v>-54.27</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>-31.9</v>
+        <v>78.24</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>-69.29</v>
+        <v>43.85</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -8336,16 +8336,16 @@
         <v>168</v>
       </c>
       <c r="D87" t="n">
-        <v>-184.96</v>
+        <v>-69.36</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>196.17</v>
+        <v>237.9</v>
       </c>
       <c r="G87" t="n">
-        <v>-74.96</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8354,52 +8354,52 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-188.35</v>
+        <v>-73.51</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>-359.59</v>
+        <v>-308.57</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>-292.8</v>
+        <v>-196.71</v>
       </c>
       <c r="O87" t="n">
-        <v>49.59</v>
+        <v>95.19</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>80.01</v>
+        <v>176.1</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>-226.73</v>
+        <v>-132.07</v>
       </c>
       <c r="T87" t="n">
-        <v>-292.18</v>
+        <v>-196.09</v>
       </c>
       <c r="U87" t="n">
-        <v>-104.53</v>
+        <v>-8.65</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>138.34</v>
+        <v>234.43</v>
       </c>
       <c r="X87" t="n">
-        <v>-75.66</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>-70.85</v>
+        <v>66.02</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -8416,16 +8416,16 @@
         <v>170</v>
       </c>
       <c r="D88" t="n">
-        <v>-71.51</v>
+        <v>-16.51</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>810.18</v>
+        <v>674.38</v>
       </c>
       <c r="G88" t="n">
-        <v>-26.25</v>
+        <v>80.54</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8434,55 +8434,55 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-72.55</v>
+        <v>-18.39</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>492.26</v>
+        <v>387.52</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>-76.28</v>
+        <v>-11.79</v>
       </c>
       <c r="O88" t="n">
-        <v>283.8</v>
+        <v>242.67</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>397.79</v>
+        <v>462.57</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>-35.71</v>
+        <v>28.78</v>
       </c>
       <c r="T88" t="n">
-        <v>-22.67</v>
+        <v>41.82</v>
       </c>
       <c r="U88" t="n">
-        <v>167.75</v>
+        <v>193.49</v>
       </c>
       <c r="V88" t="n">
-        <v>-15.26</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>448.74</v>
+        <v>513.23</v>
       </c>
       <c r="X88" t="n">
-        <v>-63.56</v>
+        <v>10.92</v>
       </c>
       <c r="Y88" t="n">
-        <v>519.69</v>
+        <v>1153.79</v>
       </c>
       <c r="Z88" t="n">
-        <v>-102.54</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="89">
@@ -8496,16 +8496,16 @@
         <v>171</v>
       </c>
       <c r="D89" t="n">
-        <v>-99.79</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>200.31</v>
+        <v>239.07</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8514,55 +8514,55 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>-100.04</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>-117.54</v>
+        <v>-78.78</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>-160.5</v>
+        <v>-79.06</v>
       </c>
       <c r="O89" t="n">
-        <v>6.76</v>
+        <v>45.52</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>49.01</v>
+        <v>130.45</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>-127.59</v>
+        <v>-46.15</v>
       </c>
       <c r="T89" t="n">
-        <v>-123.45</v>
+        <v>-42.01</v>
       </c>
       <c r="U89" t="n">
-        <v>-86.65</v>
+        <v>-5.22</v>
       </c>
       <c r="V89" t="n">
-        <v>-6.49</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>48.75</v>
+        <v>130.18</v>
       </c>
       <c r="X89" t="n">
-        <v>-7.34</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>-78.11</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>-154.83</v>
+        <v>-73.4</v>
       </c>
     </row>
     <row r="90">
@@ -8576,13 +8576,13 @@
         <v>97</v>
       </c>
       <c r="D90" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-73.03</v>
+        <v>-18.18</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -8594,22 +8594,22 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>-110.07</v>
+        <v>-55.22</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>-64.58</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>-96.81</v>
+        <v>-41.96</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -8624,22 +8624,22 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>-62.33</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>-59.97</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>-44.28</v>
+        <v>0</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>-4.98</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
         <v>0</v>
@@ -8656,13 +8656,13 @@
         <v>172</v>
       </c>
       <c r="D91" t="n">
-        <v>-72.47</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>105.65</v>
+        <v>142.57</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -8674,55 +8674,55 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>-72.42</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>-134.89</v>
+        <v>-97.97</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>-133.24</v>
+        <v>-71.69</v>
       </c>
       <c r="O91" t="n">
-        <v>-64.98</v>
+        <v>-28.05</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>24.15</v>
+        <v>105.13</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>-110.44</v>
+        <v>-44.83</v>
       </c>
       <c r="T91" t="n">
-        <v>-111.21</v>
+        <v>-45.84</v>
       </c>
       <c r="U91" t="n">
-        <v>-84.56</v>
+        <v>-16.13</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>-7.95</v>
+        <v>72.63</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>-62.02</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>-128.28</v>
+        <v>-66.54</v>
       </c>
     </row>
     <row r="92">
@@ -8736,13 +8736,13 @@
         <v>169</v>
       </c>
       <c r="D92" t="n">
-        <v>-40.82</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>55.5</v>
+        <v>96.81</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -8754,55 +8754,55 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-82.4</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>-229.52</v>
+        <v>-186.38</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>-81.32</v>
+        <v>-49.59</v>
       </c>
       <c r="O92" t="n">
-        <v>-24.59</v>
+        <v>16.31</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>-35.76</v>
+        <v>27.93</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>-70.75</v>
+        <v>-32.76</v>
       </c>
       <c r="T92" t="n">
-        <v>-71.98</v>
+        <v>-33.12</v>
       </c>
       <c r="U92" t="n">
-        <v>-58.97</v>
+        <v>-11.21</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>-30.57</v>
+        <v>61.01</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>-35.06</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>-80.31</v>
+        <v>-48.04</v>
       </c>
     </row>
     <row r="93">
@@ -8816,13 +8816,13 @@
         <v>173</v>
       </c>
       <c r="D93" t="n">
-        <v>-26.96</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1.05</v>
+        <v>42.79</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -8834,55 +8834,55 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>-26.6</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-101.69</v>
+        <v>-59.94</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>-81.71</v>
+        <v>-40.13</v>
       </c>
       <c r="O93" t="n">
-        <v>-56.61</v>
+        <v>-14.87</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>-37.25</v>
+        <v>27.31</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>-79.82</v>
+        <v>-21.32</v>
       </c>
       <c r="T93" t="n">
-        <v>-70.58</v>
+        <v>-22.82</v>
       </c>
       <c r="U93" t="n">
-        <v>-59.62</v>
+        <v>-5.05</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>-7.57</v>
+        <v>74.96</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>-16.62</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="n">
-        <v>-79.14</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="94">
@@ -8896,13 +8896,13 @@
         <v>174</v>
       </c>
       <c r="D94" t="n">
-        <v>-20.95</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-6.63</v>
+        <v>33.87</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -8914,55 +8914,55 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-21.52</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-118.22</v>
+        <v>-75.29</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>-75.76</v>
+        <v>-25.56</v>
       </c>
       <c r="O94" t="n">
-        <v>-78.03</v>
+        <v>-35.11</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>-27.53</v>
+        <v>32.62</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>-68.04</v>
+        <v>-15.51</v>
       </c>
       <c r="T94" t="n">
-        <v>-69.52</v>
+        <v>-17.6</v>
       </c>
       <c r="U94" t="n">
-        <v>-66.67</v>
+        <v>-13.31</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>-23.67</v>
+        <v>47.38</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>-18.82</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>-75.2</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="95">
@@ -8976,16 +8976,16 @@
         <v>176</v>
       </c>
       <c r="D95" t="n">
-        <v>-226.78</v>
+        <v>-145.36</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>959.89</v>
+        <v>778.48</v>
       </c>
       <c r="G95" t="n">
-        <v>-140.96</v>
+        <v>-31.56</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>-249.11</v>
+        <v>-159.05</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>322.68</v>
+        <v>412.75</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>-227.23</v>
+        <v>-137.16</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -9033,16 +9033,16 @@
         <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>467.63</v>
+        <v>557.69</v>
       </c>
       <c r="X95" t="n">
-        <v>-129.7</v>
+        <v>-50.12</v>
       </c>
       <c r="Y95" t="n">
-        <v>206.3</v>
+        <v>436.84</v>
       </c>
       <c r="Z95" t="n">
-        <v>-207.85</v>
+        <v>-117.78</v>
       </c>
     </row>
     <row r="96">
@@ -9056,16 +9056,16 @@
         <v>177</v>
       </c>
       <c r="D96" t="n">
-        <v>-139.24</v>
+        <v>-40.76</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>695.46</v>
+        <v>660.55</v>
       </c>
       <c r="G96" t="n">
-        <v>-78.77</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-153.83</v>
+        <v>-78.99</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -9095,16 +9095,16 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>249.9</v>
+        <v>324.75</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>-86.94</v>
+        <v>-12.09</v>
       </c>
       <c r="T96" t="n">
-        <v>-125.95</v>
+        <v>-51.11</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -9113,16 +9113,16 @@
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>384.38</v>
+        <v>459.23</v>
       </c>
       <c r="X96" t="n">
-        <v>-78.27</v>
+        <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>46.96</v>
+        <v>145.44</v>
       </c>
       <c r="Z96" t="n">
-        <v>-145.36</v>
+        <v>-70.51</v>
       </c>
     </row>
     <row r="97">
@@ -9136,16 +9136,16 @@
         <v>178</v>
       </c>
       <c r="D97" t="n">
-        <v>-131.43</v>
+        <v>-31</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>778.74</v>
+        <v>670.54</v>
       </c>
       <c r="G97" t="n">
-        <v>-69.6</v>
+        <v>10.62</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-162.89</v>
+        <v>-85.89</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>254.59</v>
+        <v>331.58</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>-139.44</v>
+        <v>-62.45</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
@@ -9193,16 +9193,16 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>387.12</v>
+        <v>464.11</v>
       </c>
       <c r="X97" t="n">
-        <v>-29.16</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>215.4</v>
+        <v>462.6</v>
       </c>
       <c r="Z97" t="n">
-        <v>-138.17</v>
+        <v>-61.18</v>
       </c>
     </row>
     <row r="98">
@@ -9216,16 +9216,16 @@
         <v>175</v>
       </c>
       <c r="D98" t="n">
-        <v>-198.08</v>
+        <v>-70.3</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>771.93</v>
+        <v>730.21</v>
       </c>
       <c r="G98" t="n">
-        <v>-159.42</v>
+        <v>-15.91</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9246,43 +9246,43 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-235.97</v>
+        <v>-149.56</v>
       </c>
       <c r="O98" t="n">
-        <v>354.16</v>
+        <v>302.75</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>469.52</v>
+        <v>555.93</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>-141.26</v>
+        <v>-57.84</v>
       </c>
       <c r="T98" t="n">
-        <v>-227.13</v>
+        <v>-140.72</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>41.82</v>
+        <v>266.01</v>
       </c>
       <c r="W98" t="n">
-        <v>619.04</v>
+        <v>705.45</v>
       </c>
       <c r="X98" t="n">
-        <v>-131.89</v>
+        <v>-19.67</v>
       </c>
       <c r="Y98" t="n">
-        <v>387.17</v>
+        <v>520.57</v>
       </c>
       <c r="Z98" t="n">
-        <v>-192.68</v>
+        <v>-106.26</v>
       </c>
     </row>
     <row r="99">
@@ -9296,16 +9296,16 @@
         <v>179</v>
       </c>
       <c r="D99" t="n">
-        <v>-166.32</v>
+        <v>-54.13</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>832.84</v>
+        <v>829.66</v>
       </c>
       <c r="G99" t="n">
-        <v>-98.86</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-153.97</v>
+        <v>-83.66</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -9335,16 +9335,16 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>331.89</v>
+        <v>402.2</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>-85.58</v>
+        <v>-15.28</v>
       </c>
       <c r="T99" t="n">
-        <v>-126.25</v>
+        <v>-55.94</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -9353,16 +9353,16 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>462.69</v>
+        <v>533</v>
       </c>
       <c r="X99" t="n">
-        <v>-99.1</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>196.48</v>
+        <v>308.68</v>
       </c>
       <c r="Z99" t="n">
-        <v>-139.66</v>
+        <v>-69.35</v>
       </c>
     </row>
     <row r="100">
@@ -9376,16 +9376,16 @@
         <v>181</v>
       </c>
       <c r="D100" t="n">
-        <v>-81.81</v>
+        <v>-30.67</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>275.23</v>
+        <v>306.35</v>
       </c>
       <c r="G100" t="n">
-        <v>-54.59</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9394,52 +9394,52 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-78.8</v>
+        <v>-20.87</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>87.77</v>
+        <v>121.52</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>-116.73</v>
+        <v>-40.52</v>
       </c>
       <c r="O100" t="n">
-        <v>195.96</v>
+        <v>227.47</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>319.71</v>
+        <v>390.9</v>
       </c>
       <c r="R100" t="n">
-        <v>-60.92</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>-90.91</v>
+        <v>-14.7</v>
       </c>
       <c r="T100" t="n">
-        <v>-116.17</v>
+        <v>-39.96</v>
       </c>
       <c r="U100" t="n">
-        <v>-27</v>
+        <v>48.77</v>
       </c>
       <c r="V100" t="n">
-        <v>-34.83</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>142.46</v>
+        <v>218.67</v>
       </c>
       <c r="X100" t="n">
-        <v>-55.74</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>3.52</v>
+        <v>199.04</v>
       </c>
       <c r="Z100" t="n">
         <v>0</v>
@@ -9456,13 +9456,13 @@
         <v>182</v>
       </c>
       <c r="D101" t="n">
-        <v>-111.65</v>
+        <v>-29.33</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>43.82</v>
+        <v>89.48</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -9474,52 +9474,52 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>-112.55</v>
+        <v>-32.46</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>-132.48</v>
+        <v>-80.51</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>-206.01</v>
+        <v>-113.98</v>
       </c>
       <c r="O101" t="n">
-        <v>-62.57</v>
+        <v>-16.91</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>13.49</v>
+        <v>105.53</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>-178.76</v>
+        <v>-86.73</v>
       </c>
       <c r="T101" t="n">
-        <v>-206.94</v>
+        <v>-114.91</v>
       </c>
       <c r="U101" t="n">
-        <v>-140.1</v>
+        <v>-48.06</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>16.4</v>
+        <v>108.44</v>
       </c>
       <c r="X101" t="n">
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>-84.19</v>
+        <v>13.8</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
@@ -9536,16 +9536,16 @@
         <v>183</v>
       </c>
       <c r="D102" t="n">
-        <v>-189.12</v>
+        <v>-67.21</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>447.93</v>
+        <v>484.53</v>
       </c>
       <c r="G102" t="n">
-        <v>-106.16</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>-183.56</v>
+        <v>-61.66</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -9566,40 +9566,40 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-254.7</v>
+        <v>-172.49</v>
       </c>
       <c r="O102" t="n">
-        <v>195.79</v>
+        <v>235.4</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>124.97</v>
+        <v>207.18</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>-186.87</v>
+        <v>-104.66</v>
       </c>
       <c r="T102" t="n">
-        <v>-245.75</v>
+        <v>-163.54</v>
       </c>
       <c r="U102" t="n">
-        <v>-31.16</v>
+        <v>51.05</v>
       </c>
       <c r="V102" t="n">
-        <v>-98.24</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>238.19</v>
+        <v>320.4</v>
       </c>
       <c r="X102" t="n">
-        <v>-106.85</v>
+        <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>-24.82</v>
+        <v>97.09</v>
       </c>
       <c r="Z102" t="n">
         <v>0</v>
@@ -9616,13 +9616,13 @@
         <v>184</v>
       </c>
       <c r="D103" t="n">
-        <v>-121.95</v>
+        <v>-25.13</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>158.89</v>
+        <v>197.04</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>-124.22</v>
+        <v>-21.68</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -9646,40 +9646,40 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>-194.96</v>
+        <v>-113.59</v>
       </c>
       <c r="O103" t="n">
-        <v>-198.95</v>
+        <v>-160.53</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>48.71</v>
+        <v>130.08</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>-154.88</v>
+        <v>-73.51</v>
       </c>
       <c r="T103" t="n">
-        <v>-188.62</v>
+        <v>-107.25</v>
       </c>
       <c r="U103" t="n">
-        <v>-99.48</v>
+        <v>-18.11</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>67.56</v>
+        <v>148.93</v>
       </c>
       <c r="X103" t="n">
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>-67.95</v>
+        <v>40.42</v>
       </c>
       <c r="Z103" t="n">
         <v>0</v>
@@ -9696,13 +9696,13 @@
         <v>185</v>
       </c>
       <c r="D104" t="n">
-        <v>-53.3</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-91.08</v>
+        <v>-29.22</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -9714,52 +9714,52 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-53.22</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>-205.36</v>
+        <v>-143.5</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>-154.96</v>
+        <v>-71.08</v>
       </c>
       <c r="O104" t="n">
-        <v>-160.25</v>
+        <v>-98.39</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>348.46</v>
+        <v>585.15</v>
       </c>
       <c r="R104" t="n">
-        <v>-57.94</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>-154.38</v>
+        <v>-70.6</v>
       </c>
       <c r="T104" t="n">
-        <v>-162</v>
+        <v>-80.77</v>
       </c>
       <c r="U104" t="n">
-        <v>-143.25</v>
+        <v>-55.75</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>-94.62</v>
+        <v>8.59</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>-49.23</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
         <v>0</v>
@@ -9776,13 +9776,13 @@
         <v>180</v>
       </c>
       <c r="D105" t="n">
-        <v>-87.19</v>
+        <v>-24.82</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>119.2</v>
+        <v>163.5</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -9794,52 +9794,52 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-82.53</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>-75.3</v>
+        <v>-29.05</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>-155.69</v>
+        <v>-73.77</v>
       </c>
       <c r="O105" t="n">
-        <v>-9.07</v>
+        <v>35.92</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>209.25</v>
+        <v>311.41</v>
       </c>
       <c r="R105" t="n">
-        <v>-60.45</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>-142.88</v>
+        <v>-59.17</v>
       </c>
       <c r="T105" t="n">
-        <v>-164.68</v>
+        <v>-82.68</v>
       </c>
       <c r="U105" t="n">
-        <v>-113.14</v>
+        <v>-27</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>19.99</v>
+        <v>116.36</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>-61.8</v>
+        <v>23.06</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -9856,16 +9856,16 @@
         <v>186</v>
       </c>
       <c r="D106" t="n">
-        <v>-101.73</v>
+        <v>-47.37</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>642.83</v>
+        <v>647.07</v>
       </c>
       <c r="G106" t="n">
-        <v>-83.81</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -9874,52 +9874,52 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>-97.37</v>
+        <v>-39.26</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>382.45</v>
+        <v>391.1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-108.82</v>
+        <v>-43.17</v>
       </c>
       <c r="O106" t="n">
-        <v>386.13</v>
+        <v>399.04</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>174.83</v>
+        <v>240.48</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>-75.38</v>
+        <v>-9.72</v>
       </c>
       <c r="T106" t="n">
-        <v>-103.32</v>
+        <v>-37.67</v>
       </c>
       <c r="U106" t="n">
-        <v>108.4</v>
+        <v>171.4</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>371.6</v>
+        <v>437.25</v>
       </c>
       <c r="X106" t="n">
-        <v>-85.14</v>
+        <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>71.21</v>
+        <v>270.54</v>
       </c>
       <c r="Z106" t="n">
         <v>0</v>
@@ -9936,16 +9936,16 @@
         <v>188</v>
       </c>
       <c r="D107" t="n">
-        <v>-100.37</v>
+        <v>-17.18</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1686.78</v>
+        <v>1440</v>
       </c>
       <c r="G107" t="n">
-        <v>-74.81</v>
+        <v>22.41</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>-42.15</v>
+        <v>9.47</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -9975,16 +9975,16 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>613.85</v>
+        <v>663.57</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>89.78</v>
+        <v>141.02</v>
       </c>
       <c r="T107" t="n">
-        <v>64.66</v>
+        <v>115.85</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -9993,16 +9993,16 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>825.7</v>
+        <v>877.96</v>
       </c>
       <c r="X107" t="n">
-        <v>-68.02</v>
+        <v>31.49</v>
       </c>
       <c r="Y107" t="n">
-        <v>328.18</v>
+        <v>411.37</v>
       </c>
       <c r="Z107" t="n">
-        <v>-27.65</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="108">
@@ -10016,16 +10016,16 @@
         <v>189</v>
       </c>
       <c r="D108" t="n">
-        <v>-118.86</v>
+        <v>-30.5</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1290.6</v>
+        <v>1191.27</v>
       </c>
       <c r="G108" t="n">
-        <v>-81.63</v>
+        <v>8.25</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>-92.64</v>
+        <v>-36.54</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -10055,16 +10055,16 @@
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>396.33</v>
+        <v>452.43</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>1.94</v>
+        <v>58.04</v>
       </c>
       <c r="T108" t="n">
-        <v>-9.42</v>
+        <v>46.68</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -10073,16 +10073,16 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>577.38</v>
+        <v>633.48</v>
       </c>
       <c r="X108" t="n">
-        <v>-80.16</v>
+        <v>11.84</v>
       </c>
       <c r="Y108" t="n">
-        <v>158.54</v>
+        <v>246.89</v>
       </c>
       <c r="Z108" t="n">
-        <v>-92.97</v>
+        <v>-36.87</v>
       </c>
     </row>
     <row r="109">
@@ -10096,16 +10096,16 @@
         <v>190</v>
       </c>
       <c r="D109" t="n">
-        <v>-133.09</v>
+        <v>-41.7</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>904.27</v>
+        <v>890.42</v>
       </c>
       <c r="G109" t="n">
-        <v>-86.49</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>-115.06</v>
+        <v>-56.89</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -10135,16 +10135,16 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>335.65</v>
+        <v>393.82</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>-28.1</v>
+        <v>30.07</v>
       </c>
       <c r="T109" t="n">
-        <v>-71.43</v>
+        <v>-13.26</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -10153,16 +10153,16 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>532.52</v>
+        <v>590.69</v>
       </c>
       <c r="X109" t="n">
-        <v>-86.49</v>
+        <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>102.57</v>
+        <v>193.95</v>
       </c>
       <c r="Z109" t="n">
-        <v>-105.63</v>
+        <v>-47.46</v>
       </c>
     </row>
     <row r="110">
@@ -10176,16 +10176,16 @@
         <v>191</v>
       </c>
       <c r="D110" t="n">
-        <v>-151.86</v>
+        <v>-49.04</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>884.75</v>
+        <v>817.98</v>
       </c>
       <c r="G110" t="n">
-        <v>-92.54</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>-144.79</v>
+        <v>-74.06</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -10215,16 +10215,16 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>333.98</v>
+        <v>404.71</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>-72.86</v>
+        <v>-2.14</v>
       </c>
       <c r="T110" t="n">
-        <v>-111.72</v>
+        <v>-41</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -10233,16 +10233,16 @@
         <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>470.28</v>
+        <v>541</v>
       </c>
       <c r="X110" t="n">
-        <v>-91.98</v>
+        <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>123.75</v>
+        <v>226.57</v>
       </c>
       <c r="Z110" t="n">
-        <v>-138.66</v>
+        <v>-67.94</v>
       </c>
     </row>
     <row r="111">
@@ -10256,16 +10256,16 @@
         <v>192</v>
       </c>
       <c r="D111" t="n">
-        <v>-136.58</v>
+        <v>-40.57</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1234.26</v>
+        <v>1128.5</v>
       </c>
       <c r="G111" t="n">
-        <v>-101.4</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>-87.74</v>
+        <v>-28.6</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -10295,34 +10295,34 @@
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>494.89</v>
+        <v>554.03</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>-3.49</v>
+        <v>55.65</v>
       </c>
       <c r="T111" t="n">
-        <v>-39.88</v>
+        <v>19.26</v>
       </c>
       <c r="U111" t="n">
-        <v>444.46</v>
+        <v>459.33</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>625.79</v>
+        <v>684.92</v>
       </c>
       <c r="X111" t="n">
-        <v>-99.75</v>
+        <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>195.06</v>
+        <v>291.08</v>
       </c>
       <c r="Z111" t="n">
-        <v>-77.84</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="112">
@@ -10336,16 +10336,16 @@
         <v>193</v>
       </c>
       <c r="D112" t="n">
-        <v>-135.75</v>
+        <v>-40.86</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1021.61</v>
+        <v>971.39</v>
       </c>
       <c r="G112" t="n">
-        <v>-82.91</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>-124.23</v>
+        <v>-62.6</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -10375,16 +10375,16 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>336.39</v>
+        <v>398.01</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>-41.3</v>
+        <v>20.33</v>
       </c>
       <c r="T112" t="n">
-        <v>-68.26</v>
+        <v>-6.64</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -10393,16 +10393,16 @@
         <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>496.97</v>
+        <v>558.59</v>
       </c>
       <c r="X112" t="n">
-        <v>-82.3</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>93.84</v>
+        <v>188.73</v>
       </c>
       <c r="Z112" t="n">
-        <v>-126.59</v>
+        <v>-64.97</v>
       </c>
     </row>
     <row r="113">
@@ -10416,13 +10416,13 @@
         <v>195</v>
       </c>
       <c r="D113" t="n">
-        <v>-191.82</v>
+        <v>-60.57</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>777.72</v>
+        <v>781.88</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>-222.68</v>
+        <v>-140.85</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>374.94</v>
+        <v>456.76</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -10464,25 +10464,25 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>-239.61</v>
+        <v>-157.78</v>
       </c>
       <c r="U113" t="n">
-        <v>-95.97</v>
+        <v>-21.16</v>
       </c>
       <c r="V113" t="n">
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>428</v>
+        <v>509.82</v>
       </c>
       <c r="X113" t="n">
-        <v>-135.43</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>36.91</v>
+        <v>168.16</v>
       </c>
       <c r="Z113" t="n">
-        <v>-205.66</v>
+        <v>-123.83</v>
       </c>
     </row>
     <row r="114">
@@ -10502,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1001.67</v>
+        <v>925</v>
       </c>
       <c r="G114" t="n">
-        <v>-139.79</v>
+        <v>-12.38</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>-235.61</v>
+        <v>-152.34</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -10544,22 +10544,22 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>-187.89</v>
+        <v>-104.62</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>-88.96</v>
+        <v>82.04</v>
       </c>
       <c r="W114" t="n">
-        <v>383.49</v>
+        <v>466.76</v>
       </c>
       <c r="X114" t="n">
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>476.51</v>
+        <v>597.26</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -10576,16 +10576,16 @@
         <v>197</v>
       </c>
       <c r="D115" t="n">
-        <v>-214.12</v>
+        <v>-91.54</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>453.59</v>
+        <v>492.07</v>
       </c>
       <c r="G115" t="n">
-        <v>-89.31</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>-202.7</v>
+        <v>-80.13</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>-258.75</v>
+        <v>-173.88</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -10615,31 +10615,31 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>281.16</v>
+        <v>356.59</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>-151.67</v>
+        <v>-76.24</v>
       </c>
       <c r="T115" t="n">
-        <v>-220.41</v>
+        <v>-135.53</v>
       </c>
       <c r="U115" t="n">
-        <v>107.7</v>
+        <v>183.13</v>
       </c>
       <c r="V115" t="n">
-        <v>-84.57</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>286.96</v>
+        <v>371.84</v>
       </c>
       <c r="X115" t="n">
-        <v>-106.94</v>
+        <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>52.12</v>
+        <v>176.61</v>
       </c>
       <c r="Z115" t="n">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>198</v>
       </c>
       <c r="D116" t="n">
-        <v>-165.24</v>
+        <v>-73.24</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>87.77</v>
+        <v>134.07</v>
       </c>
       <c r="G116" t="n">
-        <v>-91.09</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10674,28 +10674,28 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-175.63</v>
+        <v>-88.26</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>-327.16</v>
+        <v>-274.45</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>-262.48</v>
+        <v>-167.77</v>
       </c>
       <c r="O116" t="n">
-        <v>-75.97</v>
+        <v>-23.26</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>248.78</v>
+        <v>343.43</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -10704,22 +10704,22 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>-251.21</v>
+        <v>-156.5</v>
       </c>
       <c r="U116" t="n">
-        <v>-92.2</v>
+        <v>2.19</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>74.49</v>
+        <v>169.2</v>
       </c>
       <c r="X116" t="n">
-        <v>-92.13</v>
+        <v>0</v>
       </c>
       <c r="Y116" t="n">
-        <v>-45.1</v>
+        <v>101.24</v>
       </c>
       <c r="Z116" t="n">
         <v>0</v>
@@ -10742,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>190.29</v>
+        <v>234.76</v>
       </c>
       <c r="G117" t="n">
-        <v>-70.42</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>-305.58</v>
+        <v>-207.96</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>-298.04</v>
+        <v>-200.42</v>
       </c>
       <c r="U117" t="n">
-        <v>-225.3</v>
+        <v>-125.43</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>178.29</v>
+        <v>275.91</v>
       </c>
       <c r="X117" t="n">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>194</v>
       </c>
       <c r="D118" t="n">
-        <v>-167.88</v>
+        <v>-41.7</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>873.57</v>
+        <v>861.77</v>
       </c>
       <c r="G118" t="n">
-        <v>-137.75</v>
+        <v>-9.13</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>-234.1</v>
+        <v>-153.87</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>274.42</v>
+        <v>353</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -10864,25 +10864,25 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>-197.6</v>
+        <v>-117.36</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>-95.29</v>
+        <v>68.54</v>
       </c>
       <c r="W118" t="n">
-        <v>425.61</v>
+        <v>505.85</v>
       </c>
       <c r="X118" t="n">
-        <v>-112.34</v>
+        <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>76.93</v>
+        <v>203.11</v>
       </c>
       <c r="Z118" t="n">
-        <v>-204.34</v>
+        <v>-125.76</v>
       </c>
     </row>
     <row r="119">
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>203.73</v>
+        <v>247.29</v>
       </c>
       <c r="G119" t="n">
-        <v>-64.92</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>-263.96</v>
+        <v>-169.26</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>-236.63</v>
+        <v>-141.93</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
@@ -10953,13 +10953,13 @@
         <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>148.6</v>
+        <v>243.3</v>
       </c>
       <c r="X119" t="n">
         <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>-28.73</v>
+        <v>93.06</v>
       </c>
       <c r="Z119" t="n">
         <v>0</v>
@@ -10976,16 +10976,16 @@
         <v>201</v>
       </c>
       <c r="D120" t="n">
-        <v>-165.87</v>
+        <v>-66.54</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>982.98</v>
+        <v>927.92</v>
       </c>
       <c r="G120" t="n">
-        <v>-100.79</v>
+        <v>-6.15</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>-160.4</v>
+        <v>-59.82</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -11006,40 +11006,40 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>-149.85</v>
+        <v>-86.48</v>
       </c>
       <c r="O120" t="n">
-        <v>235.38</v>
+        <v>240.21</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>405.63</v>
+        <v>467.93</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>-110.62</v>
+        <v>-48.32</v>
       </c>
       <c r="T120" t="n">
-        <v>-83.53</v>
+        <v>-20.16</v>
       </c>
       <c r="U120" t="n">
-        <v>142.35</v>
+        <v>197.61</v>
       </c>
       <c r="V120" t="n">
-        <v>-63.4</v>
+        <v>72.68</v>
       </c>
       <c r="W120" t="n">
-        <v>447.15</v>
+        <v>510.52</v>
       </c>
       <c r="X120" t="n">
-        <v>-88.51</v>
+        <v>0</v>
       </c>
       <c r="Y120" t="n">
-        <v>270.23</v>
+        <v>371.78</v>
       </c>
       <c r="Z120" t="n">
         <v>0</v>
@@ -11056,16 +11056,16 @@
         <v>202</v>
       </c>
       <c r="D121" t="n">
-        <v>-125.82</v>
+        <v>-35.81</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>478.43</v>
+        <v>503.44</v>
       </c>
       <c r="G121" t="n">
-        <v>-84.36</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>-172.43</v>
+        <v>-99.84</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -11095,31 +11095,31 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>108.44</v>
+        <v>186.13</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>-129.24</v>
+        <v>-51.55</v>
       </c>
       <c r="T121" t="n">
-        <v>-118.48</v>
+        <v>-45.89</v>
       </c>
       <c r="U121" t="n">
-        <v>-34.64</v>
+        <v>43.05</v>
       </c>
       <c r="V121" t="n">
-        <v>-67.08</v>
+        <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>278.2</v>
+        <v>350.79</v>
       </c>
       <c r="X121" t="n">
-        <v>-52.23</v>
+        <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>136.79</v>
+        <v>337.58</v>
       </c>
       <c r="Z121" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>204</v>
       </c>
       <c r="D122" t="n">
-        <v>-47.59</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>141.4</v>
+        <v>176.67</v>
       </c>
       <c r="G122" t="n">
-        <v>-52.96</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11154,55 +11154,55 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>-47.86</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>-23.61</v>
+        <v>12.31</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>-85.84</v>
+        <v>-24.14</v>
       </c>
       <c r="O122" t="n">
-        <v>23.81</v>
+        <v>59.68</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.18</v>
+        <v>61.88</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>-77.19</v>
+        <v>-15.49</v>
       </c>
       <c r="T122" t="n">
-        <v>-80.73</v>
+        <v>-19.04</v>
       </c>
       <c r="U122" t="n">
-        <v>-44.25</v>
+        <v>17.17</v>
       </c>
       <c r="V122" t="n">
-        <v>-46.21</v>
+        <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>50.4</v>
+        <v>112.1</v>
       </c>
       <c r="X122" t="n">
-        <v>-54.2</v>
+        <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>-13.74</v>
+        <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>-85.32</v>
+        <v>-23.62</v>
       </c>
     </row>
     <row r="123">
@@ -11216,16 +11216,16 @@
         <v>205</v>
       </c>
       <c r="D123" t="n">
-        <v>-57.71</v>
+        <v>-17.66</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>520.9</v>
+        <v>490.79</v>
       </c>
       <c r="G123" t="n">
-        <v>-25.82</v>
+        <v>80.34</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11234,55 +11234,55 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>-60.62</v>
+        <v>-26.39</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>279.91</v>
+        <v>257.43</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>-75.23</v>
+        <v>-19.85</v>
       </c>
       <c r="O123" t="n">
-        <v>200.01</v>
+        <v>204.42</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>20.89</v>
+        <v>80.05</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>-49.03</v>
+        <v>6.35</v>
       </c>
       <c r="T123" t="n">
-        <v>-47.44</v>
+        <v>7.94</v>
       </c>
       <c r="U123" t="n">
-        <v>102.57</v>
+        <v>150.09</v>
       </c>
       <c r="V123" t="n">
-        <v>34.91</v>
+        <v>314.18</v>
       </c>
       <c r="W123" t="n">
-        <v>303.5</v>
+        <v>358.89</v>
       </c>
       <c r="X123" t="n">
-        <v>-40.89</v>
+        <v>17.66</v>
       </c>
       <c r="Y123" t="n">
-        <v>312.25</v>
+        <v>1017.29</v>
       </c>
       <c r="Z123" t="n">
-        <v>-86.55</v>
+        <v>-27.38</v>
       </c>
     </row>
     <row r="124">
@@ -11296,13 +11296,13 @@
         <v>206</v>
       </c>
       <c r="D124" t="n">
-        <v>-35.09</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>102.68</v>
+        <v>139.59</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -11314,55 +11314,55 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-43.89</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>-77.78</v>
+        <v>-40.06</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>-96.63</v>
+        <v>-25.38</v>
       </c>
       <c r="O124" t="n">
-        <v>7.54</v>
+        <v>45.26</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>-27.53</v>
+        <v>43.71</v>
       </c>
       <c r="R124" t="n">
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>-91.94</v>
+        <v>-19.92</v>
       </c>
       <c r="T124" t="n">
-        <v>-90.04</v>
+        <v>-18.79</v>
       </c>
       <c r="U124" t="n">
-        <v>-80.63</v>
+        <v>-6.86</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>-15.85</v>
+        <v>61.09</v>
       </c>
       <c r="X124" t="n">
         <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>-32.18</v>
+        <v>0</v>
       </c>
       <c r="Z124" t="n">
-        <v>-91.64</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="125">
@@ -11376,16 +11376,16 @@
         <v>207</v>
       </c>
       <c r="D125" t="n">
-        <v>-38.97</v>
+        <v>-15.06</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>208.88</v>
+        <v>239.82</v>
       </c>
       <c r="G125" t="n">
-        <v>-25.27</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -11394,55 +11394,55 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>-45.1</v>
+        <v>-15.55</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>-20.45</v>
+        <v>10.55</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>-96.53</v>
+        <v>-33.1</v>
       </c>
       <c r="O125" t="n">
-        <v>125.11</v>
+        <v>155.57</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>19.43</v>
+        <v>82.86</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>-83.35</v>
+        <v>-19.92</v>
       </c>
       <c r="T125" t="n">
-        <v>-87.01</v>
+        <v>-23.58</v>
       </c>
       <c r="U125" t="n">
-        <v>-51.38</v>
+        <v>11.84</v>
       </c>
       <c r="V125" t="n">
-        <v>-25.96</v>
+        <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>81.28</v>
+        <v>144.51</v>
       </c>
       <c r="X125" t="n">
-        <v>-25.66</v>
+        <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>-10.35</v>
+        <v>123.75</v>
       </c>
       <c r="Z125" t="n">
-        <v>-87.95</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="126">
@@ -11456,13 +11456,13 @@
         <v>208</v>
       </c>
       <c r="D126" t="n">
-        <v>-40.34</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>191.8</v>
+        <v>223.46</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>-78.32</v>
+        <v>-17.73</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -11495,19 +11495,19 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>19.8</v>
+        <v>80.38</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>-75.82</v>
+        <v>-15.1</v>
       </c>
       <c r="T126" t="n">
-        <v>-76.12</v>
+        <v>-15.53</v>
       </c>
       <c r="U126" t="n">
-        <v>-62.57</v>
+        <v>-1.86</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
@@ -11516,13 +11516,13 @@
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>-13.75</v>
+        <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>-29.45</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>-73.29</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="127">
@@ -11536,13 +11536,13 @@
         <v>203</v>
       </c>
       <c r="D127" t="n">
-        <v>-30.98</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>135.68</v>
+        <v>168.05</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -11554,55 +11554,55 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-24.63</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>-36.2</v>
+        <v>-5.01</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>-81.71</v>
+        <v>-17.95</v>
       </c>
       <c r="O127" t="n">
-        <v>29.91</v>
+        <v>61.1</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>-6.61</v>
+        <v>57.15</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>-77.96</v>
+        <v>-14</v>
       </c>
       <c r="T127" t="n">
-        <v>-77.3</v>
+        <v>-13.54</v>
       </c>
       <c r="U127" t="n">
-        <v>-70.88</v>
+        <v>-6.92</v>
       </c>
       <c r="V127" t="n">
         <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>-22.05</v>
+        <v>45.63</v>
       </c>
       <c r="X127" t="n">
         <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="Z127" t="n">
-        <v>-76.06</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="128">
@@ -11616,16 +11616,16 @@
         <v>210</v>
       </c>
       <c r="D128" t="n">
-        <v>-64.05</v>
+        <v>-21.71</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>266.17</v>
+        <v>291.02</v>
       </c>
       <c r="G128" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -11634,55 +11634,55 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-38.08</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>37.22</v>
+        <v>65.25</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>-81.81</v>
+        <v>-24</v>
       </c>
       <c r="O128" t="n">
-        <v>169.81</v>
+        <v>197.58</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>95.32</v>
+        <v>153.13</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>-58.99</v>
+        <v>-1.18</v>
       </c>
       <c r="T128" t="n">
-        <v>-82.66</v>
+        <v>-24.85</v>
       </c>
       <c r="U128" t="n">
-        <v>5.72</v>
+        <v>62.57</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>112.96</v>
+        <v>163.84</v>
       </c>
       <c r="X128" t="n">
-        <v>-35.87</v>
+        <v>0</v>
       </c>
       <c r="Y128" t="n">
-        <v>-19.06</v>
+        <v>94.62</v>
       </c>
       <c r="Z128" t="n">
-        <v>-83.91</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="129">
@@ -11696,16 +11696,16 @@
         <v>211</v>
       </c>
       <c r="D129" t="n">
-        <v>-115.68</v>
+        <v>-41.25</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>364.45</v>
+        <v>388.25</v>
       </c>
       <c r="G129" t="n">
-        <v>-56.88</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>-119.39</v>
+        <v>-46.95</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -11726,43 +11726,43 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>-128.48</v>
+        <v>-60.37</v>
       </c>
       <c r="O129" t="n">
-        <v>277.21</v>
+        <v>301.13</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>159.25</v>
+        <v>227.36</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>-93.13</v>
+        <v>-25.02</v>
       </c>
       <c r="T129" t="n">
-        <v>-127.21</v>
+        <v>-59.1</v>
       </c>
       <c r="U129" t="n">
-        <v>39.35</v>
+        <v>106.82</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>260.75</v>
+        <v>328.86</v>
       </c>
       <c r="X129" t="n">
-        <v>-56.64</v>
+        <v>0</v>
       </c>
       <c r="Y129" t="n">
-        <v>-0.81</v>
+        <v>125.01</v>
       </c>
       <c r="Z129" t="n">
-        <v>-140.04</v>
+        <v>-70.33</v>
       </c>
     </row>
     <row r="130">
@@ -11776,16 +11776,16 @@
         <v>212</v>
       </c>
       <c r="D130" t="n">
-        <v>-101.62</v>
+        <v>-39.2</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>471.07</v>
+        <v>475.73</v>
       </c>
       <c r="G130" t="n">
-        <v>-87.28</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -11794,52 +11794,52 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>-99.49</v>
+        <v>-35.86</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>-5.53</v>
+        <v>18.86</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>-119.39</v>
+        <v>-54.78</v>
       </c>
       <c r="O130" t="n">
-        <v>319.74</v>
+        <v>329.08</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>166.54</v>
+        <v>231.16</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>-71.76</v>
+        <v>-7.14</v>
       </c>
       <c r="T130" t="n">
-        <v>-116.03</v>
+        <v>-51.42</v>
       </c>
       <c r="U130" t="n">
-        <v>96.81</v>
+        <v>154.47</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>391.03</v>
+        <v>455.64</v>
       </c>
       <c r="X130" t="n">
-        <v>-84.91</v>
+        <v>0</v>
       </c>
       <c r="Y130" t="n">
-        <v>31.69</v>
+        <v>184.17</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
@@ -11856,16 +11856,16 @@
         <v>213</v>
       </c>
       <c r="D131" t="n">
-        <v>-36.69</v>
+        <v>-29.93</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>94.52</v>
+        <v>122.55</v>
       </c>
       <c r="G131" t="n">
-        <v>-31.22</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -11874,52 +11874,52 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-36.07</v>
+        <v>-22.2</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>-32.02</v>
+        <v>-3.48</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>-62.41</v>
+        <v>-29.95</v>
       </c>
       <c r="O131" t="n">
-        <v>58.29</v>
+        <v>86.48</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>36.17</v>
+        <v>116.44</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>-54.52</v>
+        <v>-15.61</v>
       </c>
       <c r="T131" t="n">
-        <v>-63.72</v>
+        <v>-31.67</v>
       </c>
       <c r="U131" t="n">
-        <v>-26.4</v>
+        <v>30.3</v>
       </c>
       <c r="V131" t="n">
-        <v>-10.79</v>
+        <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>48.88</v>
+        <v>147.09</v>
       </c>
       <c r="X131" t="n">
-        <v>-30.88</v>
+        <v>0</v>
       </c>
       <c r="Y131" t="n">
-        <v>-8.79</v>
+        <v>121.3</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
@@ -11936,16 +11936,16 @@
         <v>214</v>
       </c>
       <c r="D132" t="n">
-        <v>-35.58</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>178.58</v>
+        <v>203.75</v>
       </c>
       <c r="G132" t="n">
-        <v>-17.88</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -11954,22 +11954,22 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-35.72</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>61.25</v>
+        <v>86.49</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>-55.91</v>
+        <v>-14.49</v>
       </c>
       <c r="O132" t="n">
-        <v>139.99</v>
+        <v>165.19</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -11981,25 +11981,25 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>-49.42</v>
+        <v>-6.82</v>
       </c>
       <c r="T132" t="n">
-        <v>-56.47</v>
+        <v>-15.1</v>
       </c>
       <c r="U132" t="n">
-        <v>-18.23</v>
+        <v>31.14</v>
       </c>
       <c r="V132" t="n">
-        <v>-16.17</v>
+        <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>103.22</v>
+        <v>175.68</v>
       </c>
       <c r="X132" t="n">
-        <v>-18.59</v>
+        <v>0</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
@@ -12016,16 +12016,16 @@
         <v>215</v>
       </c>
       <c r="D133" t="n">
-        <v>-41.22</v>
+        <v>-22.86</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>205.3</v>
+        <v>231.21</v>
       </c>
       <c r="G133" t="n">
-        <v>-24.44</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12034,55 +12034,55 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-39.9</v>
+        <v>-16.92</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>33.95</v>
+        <v>60.41</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>-67.3</v>
+        <v>-19.92</v>
       </c>
       <c r="O133" t="n">
-        <v>157.22</v>
+        <v>183.24</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>54.02</v>
+        <v>119.77</v>
       </c>
       <c r="R133" t="n">
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>-49.46</v>
+        <v>0.12</v>
       </c>
       <c r="T133" t="n">
-        <v>-65.57</v>
+        <v>-17.9</v>
       </c>
       <c r="U133" t="n">
-        <v>-19.98</v>
+        <v>34.16</v>
       </c>
       <c r="V133" t="n">
-        <v>-10.79</v>
+        <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>101.89</v>
+        <v>169.28</v>
       </c>
       <c r="X133" t="n">
-        <v>-22.74</v>
+        <v>0</v>
       </c>
       <c r="Y133" t="n">
-        <v>-0.01</v>
+        <v>115.72</v>
       </c>
       <c r="Z133" t="n">
-        <v>-56.71</v>
+        <v>-14.03</v>
       </c>
     </row>
     <row r="134">
@@ -12096,16 +12096,16 @@
         <v>209</v>
       </c>
       <c r="D134" t="n">
-        <v>-91.19</v>
+        <v>-28.16</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>329.14</v>
+        <v>354.96</v>
       </c>
       <c r="G134" t="n">
-        <v>-50.62</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12114,52 +12114,52 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-78.38</v>
+        <v>-19.56</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>57.06</v>
+        <v>84.42</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>-102.1</v>
+        <v>-44.78</v>
       </c>
       <c r="O134" t="n">
-        <v>254.09</v>
+        <v>279.07</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>156.91</v>
+        <v>258.93</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>-74.47</v>
+        <v>-12.55</v>
       </c>
       <c r="T134" t="n">
-        <v>-107.16</v>
+        <v>-50.86</v>
       </c>
       <c r="U134" t="n">
-        <v>12.49</v>
+        <v>91.42</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>199.86</v>
+        <v>318.76</v>
       </c>
       <c r="X134" t="n">
-        <v>-46.66</v>
+        <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>-2.1</v>
+        <v>112.19</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
